--- a/TestSets.xlsx
+++ b/TestSets.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="21" sheetId="1" r:id="rId1"/>
+    <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
+    <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
   <si>
     <t>SCGD</t>
   </si>
@@ -108,6 +109,75 @@
   </si>
   <si>
     <t>Infer5 cmd</t>
+  </si>
+  <si>
+    <t>Data_Transformation=DT_DELTA</t>
+  </si>
+  <si>
+    <t>PredictionLen=1</t>
+  </si>
+  <si>
+    <t>EURUSD_H1</t>
+  </si>
+  <si>
+    <t>Date0=31/10/2016</t>
+  </si>
+  <si>
+    <t>UseContext=true</t>
+  </si>
+  <si>
+    <t>MaxEpochs=200</t>
+  </si>
+  <si>
+    <t>BPstd.LearningRate=0.001</t>
+  </si>
+  <si>
+    <t>BPStd.LearningMomentum=0.8</t>
+  </si>
+  <si>
+    <t>HistoryLen (6000-12000-18000-24000)</t>
+  </si>
+  <si>
+    <t>SampleLen (50-100-200)</t>
+  </si>
+  <si>
+    <t>BP_Algo (BP_STD - BP_SCGD)</t>
+  </si>
+  <si>
+    <t>LevelRatio (2/1-1/2-2-2)</t>
+  </si>
+  <si>
+    <t>TrainingParms - Fixed Parms</t>
+  </si>
+  <si>
+    <t>TrainingParms - Variable Parms</t>
+  </si>
+  <si>
+    <t>HistoryLen=400 (1 month)</t>
+  </si>
+  <si>
+    <t>Infer Sets - Fixed Parms</t>
+  </si>
+  <si>
+    <t>Infer Sets - Variable Parms</t>
+  </si>
+  <si>
+    <t>Date0 (01/11/2016, 01/12/2016, 01/01/2017, 01/02/2017, 01/03/2017, 01/04/2017)</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0b.xml</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i1b.xml</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i2b.xml</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i3b.xml</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i4b.xml</t>
   </si>
 </sst>
 </file>
@@ -448,13 +518,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,21 +632,22 @@
     <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="11" max="16" width="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1">
-        <v>21</v>
-      </c>
       <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>21</v>
+      </c>
       <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
@@ -502,195 +666,195 @@
       <c r="P2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="Q4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>6556</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D35" si="0">"Config.NoInclude/DataShapes/"&amp;B4&amp;"-"&amp;"1.xml"</f>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D36" si="0">"Config.NoInclude/DataShapes/"&amp;B5&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>6000</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H35" si="1">"Config.NoInclude/Engines/"&amp;G4&amp;"-"&amp;F4&amp;".xml"</f>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H36" si="1">"Config.NoInclude/Engines/"&amp;G5&amp;"-"&amp;F5&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I35" si="2">"Config.NoInclude/DataSets/"&amp;E4&amp;".xml"</f>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I36" si="2">"Config.NoInclude/DataSets/"&amp;E5&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
-      <c r="J4" t="str">
-        <f>"zzz Both "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;D4&amp;" "&amp;I4&amp;" "&amp;H4</f>
+      <c r="J5" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K4" t="str">
-        <f>"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D4&amp;" "&amp;K$2&amp;" "&amp;$H4&amp;" "&amp;$A4</f>
+      <c r="K5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:P19" si="3">"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D4&amp;" "&amp;L$2&amp;" "&amp;$H4&amp;" "&amp;$A4</f>
+      <c r="L5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;L$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="3"/>
+      <c r="M5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;M$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="3"/>
+      <c r="N5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;N$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="3"/>
+      <c r="O5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;O$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" si="3"/>
+      <c r="P5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;P$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
         <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="Q5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;Q$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+      <c r="R5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;R$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+      <c r="S5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;S$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+      <c r="T5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;T$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+      <c r="U5" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;U$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>9048</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:C68" si="4">"Config.NoInclude/Client.xml"</f>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C69" si="3">"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
-      </c>
-      <c r="E5">
-        <v>6000</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>Config.NoInclude/Engines/STD-2.xml</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/6000.xml</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J68" si="5">"zzz Both "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;D5&amp;" "&amp;I5&amp;" "&amp;H5</f>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2.xml</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" ref="K5:P20" si="6">"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5368</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E6">
         <v>6000</v>
@@ -710,51 +874,71 @@
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D6&amp;" "&amp;I6&amp;" "&amp;H6</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;K$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="L6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;L$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="M6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;M$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="N6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;N$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="O6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;O$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="P6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;P$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;Q$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="R6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;R$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="S6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;S$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="T6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;T$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+      <c r="U6" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D6&amp;" "&amp;U$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5368</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1624</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E7">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -768,51 +952,71 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D7&amp;" "&amp;I7&amp;" "&amp;H7</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;K$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="L7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;L$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="M7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;M$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="N7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;N$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="O7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;O$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="P7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;P$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;Q$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="R7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;R$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="S7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;S$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="T7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;T$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="U7" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D7&amp;" "&amp;U$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1624</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>9368</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E8">
         <v>12000</v>
@@ -832,48 +1036,68 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D8&amp;" "&amp;I8&amp;" "&amp;H8</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;K$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="L8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;L$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="M8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;M$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="N8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;N$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="O8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;O$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="P8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;P$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;Q$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="R8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;R$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="S8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;S$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="T8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;T$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+      <c r="U8" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D8&amp;" "&amp;U$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9368</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3400</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E9">
         <v>12000</v>
@@ -893,51 +1117,71 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D9&amp;" "&amp;I9&amp;" "&amp;H9</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;K$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="L9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;L$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="M9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;M$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="N9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;N$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="O9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;O$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="P9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;P$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;Q$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="R9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;R$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="S9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;S$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="T9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;T$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+      <c r="U9" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D9&amp;" "&amp;U$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3400</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9372</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E10">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -951,51 +1195,71 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D10&amp;" "&amp;I10&amp;" "&amp;H10</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;K$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="L10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;L$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="M10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;M$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="N10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;N$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="O10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;O$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="P10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;P$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;Q$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="R10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;R$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="S10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;S$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="T10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;T$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+      <c r="U10" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D10&amp;" "&amp;U$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9372</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3576</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E11">
         <v>18000</v>
@@ -1015,48 +1279,68 @@
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D11&amp;" "&amp;I11&amp;" "&amp;H11</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;K$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="L11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;L$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="M11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;M$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="N11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;N$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="O11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;O$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="P11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;P$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;Q$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="R11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;R$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="S11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;S$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="T11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;T$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+      <c r="U11" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D11&amp;" "&amp;U$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3576</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1980</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E12">
         <v>18000</v>
@@ -1076,51 +1360,71 @@
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D12&amp;" "&amp;I12&amp;" "&amp;H12</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;K$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="L12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;L$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="M12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;M$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="N12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;N$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="O12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;O$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="P12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;P$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;Q$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="R12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;R$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="S12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;S$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="T12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;T$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+      <c r="U12" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D12&amp;" "&amp;U$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1980</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>8052</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E13">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1134,51 +1438,71 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D13&amp;" "&amp;I13&amp;" "&amp;H13</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;K$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="L13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;L$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="M13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;M$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="N13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;N$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="O13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;O$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="P13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;P$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;Q$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="R13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;R$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="S13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;S$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="T13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;T$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+      <c r="U13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D13&amp;" "&amp;U$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8052</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5532</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E14">
         <v>24000</v>
@@ -1198,48 +1522,68 @@
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D14&amp;" "&amp;I14&amp;" "&amp;H14</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;K$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="L14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;L$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="M14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;M$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="N14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;N$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="O14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;O$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="P14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;P$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;Q$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;R$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="S14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;S$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="T14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;T$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+      <c r="U14" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D14&amp;" "&amp;U$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5532</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>6460</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E15">
         <v>24000</v>
@@ -1259,53 +1603,73 @@
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D15&amp;" "&amp;I15&amp;" "&amp;H15</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;K$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="L15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;L$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="M15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;M$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="N15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;N$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="O15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;O$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="P15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;P$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;Q$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="R15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;R$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="S15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;S$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="T15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;T$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+      <c r="U15" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D15&amp;" "&amp;U$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6460</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>9488</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E16">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="1" t="s">
+        <v>24000</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
@@ -1313,55 +1677,75 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/6000.xml</v>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D16&amp;" "&amp;I16&amp;" "&amp;H16</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;K$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
       </c>
       <c r="L16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;L$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="M16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;M$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="N16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;N$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="O16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;O$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="P16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;P$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;Q$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="R16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;R$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="S16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;S$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="T16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;T$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+      <c r="U16" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D16&amp;" "&amp;U$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 6460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9488</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4616</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E17">
         <v>6000</v>
@@ -1381,48 +1765,68 @@
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D17&amp;" "&amp;I17&amp;" "&amp;H17</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;K$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="L17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;L$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="M17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;M$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="N17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;N$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="O17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;O$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="P17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;P$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;Q$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="R17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;R$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="S17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;S$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="T17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;T$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+      <c r="U17" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D17&amp;" "&amp;U$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4616</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7656</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E18">
         <v>6000</v>
@@ -1442,51 +1846,71 @@
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D18&amp;" "&amp;I18&amp;" "&amp;H18</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;K$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="L18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;L$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="M18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;M$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="N18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;N$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="O18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;O$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="P18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;P$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;Q$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="R18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;R$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="S18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;S$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="T18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;T$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+      <c r="U18" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D18&amp;" "&amp;U$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7656</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>5340</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E19">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>2</v>
@@ -1500,51 +1924,71 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D19&amp;" "&amp;I19&amp;" "&amp;H19</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;K$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="L19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;L$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="M19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;M$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="N19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;N$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="O19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;O$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="P19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;P$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;Q$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="R19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;R$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="S19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;S$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="T19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;T$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+      <c r="U19" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D19&amp;" "&amp;U$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5340</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>9312</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="4"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E20">
         <v>12000</v>
@@ -1564,48 +2008,68 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D20&amp;" "&amp;I20&amp;" "&amp;H20</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;K$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;L$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;M$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;N$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;O$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;P$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;Q$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+      <c r="R20" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;R$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+      <c r="S20" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;S$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+      <c r="T20" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;T$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+      <c r="U20" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D20&amp;" "&amp;U$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3144</v>
+        <v>9312</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E21">
         <v>12000</v>
@@ -1625,51 +2089,71 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D21&amp;" "&amp;I21&amp;" "&amp;H21</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ref="K21:P36" si="7">"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;K$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;K$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;L$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;M$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;N$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;O$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;P$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;Q$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+      <c r="R21" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;R$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+      <c r="S21" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;S$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+      <c r="T21" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;T$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+      <c r="U21" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D21&amp;" "&amp;U$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>7688</v>
+        <v>3144</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E22">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
@@ -1683,51 +2167,71 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D22&amp;" "&amp;I22&amp;" "&amp;H22</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;K$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;L$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;M$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;N$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;O$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;P$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;Q$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+      <c r="R22" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;R$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+      <c r="S22" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;S$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+      <c r="T22" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;T$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+      <c r="U22" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D22&amp;" "&amp;U$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3780</v>
+        <v>7688</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E23">
         <v>18000</v>
@@ -1747,48 +2251,68 @@
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D23&amp;" "&amp;I23&amp;" "&amp;H23</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;K$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;L$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;M$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;N$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;O$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;P$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;Q$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+      <c r="R23" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;R$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+      <c r="S23" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;S$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+      <c r="T23" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;T$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+      <c r="U23" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D23&amp;" "&amp;U$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>796</v>
+        <v>3780</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E24">
         <v>18000</v>
@@ -1808,51 +2332,71 @@
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D24&amp;" "&amp;I24&amp;" "&amp;H24</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;K$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;L$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;M$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;N$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;O$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;P$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;Q$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+      <c r="R24" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;R$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+      <c r="S24" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;S$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+      <c r="T24" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;T$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+      <c r="U24" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D24&amp;" "&amp;U$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1340</v>
+        <v>796</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E25">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
@@ -1866,51 +2410,71 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D25&amp;" "&amp;I25&amp;" "&amp;H25</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;K$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;L$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;M$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;N$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;O$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;P$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;Q$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+      <c r="R25" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;R$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+      <c r="S25" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;S$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+      <c r="T25" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;T$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+      <c r="U25" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D25&amp;" "&amp;U$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>8896</v>
+        <v>1340</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E26">
         <v>24000</v>
@@ -1930,48 +2494,68 @@
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D26&amp;" "&amp;I26&amp;" "&amp;H26</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;K$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;L$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;M$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;N$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;O$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;P$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;Q$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+      <c r="R26" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;R$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+      <c r="S26" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;S$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+      <c r="T26" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;T$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+      <c r="U26" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D26&amp;" "&amp;U$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5944</v>
+        <v>8896</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E27">
         <v>24000</v>
@@ -1991,106 +2575,146 @@
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D27&amp;" "&amp;I27&amp;" "&amp;H27</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;K$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;L$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;M$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;N$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;O$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;P$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;Q$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+      <c r="R27" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;R$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+      <c r="S27" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;S$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+      <c r="T27" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;T$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+      <c r="U27" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D27&amp;" "&amp;U$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>9948</v>
+        <v>5944</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E28">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/6000.xml</v>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D28&amp;" "&amp;I28&amp;" "&amp;H28</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 9948</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;K$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 9948</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;L$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 9948</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;M$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 9948</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;N$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 9948</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;O$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 9948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;P$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;Q$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+      </c>
+      <c r="R28" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;R$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+      </c>
+      <c r="S28" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;S$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+      </c>
+      <c r="T28" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;T$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+      </c>
+      <c r="U28" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D28&amp;" "&amp;U$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 5944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E29">
         <v>6000</v>
@@ -2110,45 +2734,65 @@
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D29&amp;" "&amp;I29&amp;" "&amp;H29</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;K$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;L$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;M$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;N$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;O$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;P$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q29" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;Q$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R29" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;R$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S29" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;S$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T29" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;T$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U29" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D29&amp;" "&amp;U$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E30">
         <v>6000</v>
@@ -2168,48 +2812,68 @@
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D30&amp;" "&amp;I30&amp;" "&amp;H30</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;K$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;L$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;M$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;N$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;O$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;P$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q30" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;Q$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R30" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;R$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S30" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;S$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T30" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;T$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U30" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D30&amp;" "&amp;U$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E31">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>1</v>
@@ -2223,48 +2887,68 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D31&amp;" "&amp;I31&amp;" "&amp;H31</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;K$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;L$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;M$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;N$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;O$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;P$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q31" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;Q$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R31" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;R$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S31" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;S$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T31" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;T$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U31" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D31&amp;" "&amp;U$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E32">
         <v>12000</v>
@@ -2284,45 +2968,65 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D32&amp;" "&amp;I32&amp;" "&amp;H32</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;K$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;L$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;M$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;N$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;O$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;P$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q32" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;Q$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R32" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;R$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S32" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;S$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T32" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;T$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U32" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D32&amp;" "&amp;U$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E33">
         <v>12000</v>
@@ -2342,48 +3046,68 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D33&amp;" "&amp;I33&amp;" "&amp;H33</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;K$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;L$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;M$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;N$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;O$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;P$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q33" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;Q$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R33" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;R$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S33" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;S$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T33" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;T$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U33" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D33&amp;" "&amp;U$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E34">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1</v>
@@ -2397,48 +3121,68 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D34&amp;" "&amp;I34&amp;" "&amp;H34</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;K$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;L$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;M$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;N$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;O$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;P$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q34" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;Q$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R34" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;R$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S34" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;S$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T34" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;T$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U34" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D34&amp;" "&amp;U$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E35">
         <v>18000</v>
@@ -2458,45 +3202,65 @@
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D35&amp;" "&amp;I35&amp;" "&amp;H35</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;L$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;M$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;N$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;O$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;P$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q35" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;Q$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R35" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;R$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S35" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;S$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T35" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;T$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U35" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D35&amp;" "&amp;U$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" ref="D36:D67" si="8">"Config.NoInclude/DataShapes/"&amp;B36&amp;"-"&amp;"1.xml"</f>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f t="shared" si="0"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E36">
         <v>18000</v>
@@ -2508,56 +3272,76 @@
         <v>3</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:H67" si="9">"Config.NoInclude/Engines/"&amp;G36&amp;"-"&amp;F36&amp;".xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" ref="I36:I67" si="10">"Config.NoInclude/DataSets/"&amp;E36&amp;".xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D36&amp;" "&amp;I36&amp;" "&amp;H36</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;K$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;L$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;M$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;N$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;O$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;P$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q36" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;Q$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R36" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;R$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S36" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;S$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T36" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;T$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U36" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D36&amp;" "&amp;U$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <f t="shared" ref="D37:D68" si="4">"Config.NoInclude/DataShapes/"&amp;B37&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E37">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1</v>
@@ -2566,53 +3350,73 @@
         <v>3</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H37:H68" si="5">"Config.NoInclude/Engines/"&amp;G37&amp;"-"&amp;F37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f t="shared" ref="I37:I68" si="6">"Config.NoInclude/DataSets/"&amp;E37&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" ref="K37:P52" si="11">"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;K$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;K$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;L$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;M$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;N$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;O$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;P$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q37" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;Q$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R37" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;R$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S37" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;S$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T37" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;T$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U37" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D37&amp;" "&amp;U$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C38" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D38" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E38">
         <v>24000</v>
@@ -2624,53 +3428,73 @@
         <v>3</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D38&amp;" "&amp;I38&amp;" "&amp;H38</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;K$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;L$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;M$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;N$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;O$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;P$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q38" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;Q$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R38" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;R$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S38" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;S$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T38" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;T$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U38" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D38&amp;" "&amp;U$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C39" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D39" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E39">
         <v>24000</v>
@@ -2682,111 +3506,151 @@
         <v>3</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J39" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D39&amp;" "&amp;I39&amp;" "&amp;H39</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="K39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;K$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="L39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;L$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="M39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;M$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="N39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;N$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="O39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;O$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="P39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;P$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="Q39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;Q$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;R$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;S$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;T$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U39" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D39&amp;" "&amp;U$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>200</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="E40">
+        <v>24000</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="5"/>
+        <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J40" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D40&amp;" "&amp;I40&amp;" "&amp;H40</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="11"/>
+      <c r="K40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;K$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="11"/>
+      <c r="L40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;L$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
-      <c r="M39" t="str">
-        <f t="shared" si="11"/>
+      <c r="M40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;M$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
-      <c r="N39" t="str">
-        <f t="shared" si="11"/>
+      <c r="N40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;N$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
-      <c r="O39" t="str">
-        <f t="shared" si="11"/>
+      <c r="O40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;O$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
-      <c r="P39" t="str">
-        <f t="shared" si="11"/>
+      <c r="P40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;P$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40">
+      <c r="Q40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;Q$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="R40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;R$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="S40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;S$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="T40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;T$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+      <c r="U40" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D40&amp;" "&amp;U$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41">
         <v>50</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C41" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D41" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="8"/>
         <v>Config.NoInclude/DataShapes/50-1.xml</v>
-      </c>
-      <c r="E40">
-        <v>6000</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/6000.xml</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E41">
         <v>6000</v>
@@ -2798,53 +3662,73 @@
         <v>0</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D41&amp;" "&amp;I41&amp;" "&amp;H41</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;K$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;L$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;M$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;N$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;O$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;P$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q41" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;Q$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R41" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;R$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S41" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;S$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T41" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;T$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U41" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D41&amp;" "&amp;U$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C42" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D42" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E42">
         <v>6000</v>
@@ -2856,56 +3740,76 @@
         <v>0</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D42&amp;" "&amp;I42&amp;" "&amp;H42</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;K$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;L$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;M$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;N$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;O$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;P$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q42" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;Q$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R42" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;R$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S42" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;S$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T42" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;T$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U42" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D42&amp;" "&amp;U$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D43" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E43">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -2914,53 +3818,73 @@
         <v>0</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D43&amp;" "&amp;I43&amp;" "&amp;H43</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;K$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;L$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;M$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;N$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;O$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;P$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q43" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;Q$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R43" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;R$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S43" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;S$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T43" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;T$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U43" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D43&amp;" "&amp;U$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C44" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D44" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E44">
         <v>12000</v>
@@ -2972,53 +3896,73 @@
         <v>0</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D44&amp;" "&amp;I44&amp;" "&amp;H44</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;K$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;L$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;M$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;N$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;O$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;P$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q44" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;Q$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R44" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;R$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S44" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;S$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T44" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;T$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U44" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D44&amp;" "&amp;U$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C45" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D45" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E45">
         <v>12000</v>
@@ -3030,56 +3974,76 @@
         <v>0</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D45&amp;" "&amp;I45&amp;" "&amp;H45</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;L$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;M$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;N$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;O$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;P$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q45" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;Q$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R45" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;R$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S45" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;S$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T45" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;T$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U45" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D45&amp;" "&amp;U$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C46" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D46" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E46">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -3088,53 +4052,73 @@
         <v>0</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D46&amp;" "&amp;I46&amp;" "&amp;H46</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;K$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;L$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;M$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;N$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;O$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;P$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q46" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;Q$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R46" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;R$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S46" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;S$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T46" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;T$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U46" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D46&amp;" "&amp;U$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C47" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D47" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E47">
         <v>18000</v>
@@ -3146,53 +4130,73 @@
         <v>0</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D47&amp;" "&amp;I47&amp;" "&amp;H47</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;K$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;L$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;M$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;N$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;O$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;P$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q47" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;Q$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R47" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;R$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S47" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;S$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T47" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;T$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U47" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D47&amp;" "&amp;U$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C48" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E48">
         <v>18000</v>
@@ -3204,56 +4208,76 @@
         <v>0</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D48&amp;" "&amp;I48&amp;" "&amp;H48</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;K$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;L$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;M$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;N$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;O$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;P$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q48" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;Q$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R48" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;R$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S48" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;S$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T48" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;T$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U48" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D48&amp;" "&amp;U$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C49" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E49">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -3262,53 +4286,73 @@
         <v>0</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D49&amp;" "&amp;I49&amp;" "&amp;H49</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;K$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;L$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;M$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;N$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;O$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;P$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q49" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;Q$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R49" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;R$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S49" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;S$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T49" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;T$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U49" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D49&amp;" "&amp;U$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C50" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D50" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E50">
         <v>24000</v>
@@ -3320,53 +4364,73 @@
         <v>0</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D50&amp;" "&amp;I50&amp;" "&amp;H50</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;K$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;L$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;M$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;N$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;O$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;P$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q50" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;Q$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R50" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;R$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S50" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;S$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T50" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;T$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U50" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D50&amp;" "&amp;U$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C51" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D51" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E51">
         <v>24000</v>
@@ -3378,111 +4442,151 @@
         <v>0</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D51&amp;" "&amp;I51&amp;" "&amp;H51</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;K$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;L$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;M$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;N$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;O$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;P$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q51" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;Q$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R51" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;R$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S51" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;S$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T51" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;T$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U51" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D51&amp;" "&amp;U$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C52" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D52" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E52">
-        <v>6000</v>
-      </c>
-      <c r="F52" s="1" t="s">
+        <v>24000</v>
+      </c>
+      <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="s">
         <v>0</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f t="shared" si="5"/>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/6000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D52&amp;" "&amp;I52&amp;" "&amp;H52</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;K$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;L$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;M$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;N$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;O$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;P$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="Q52" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;Q$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="R52" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;R$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="S52" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;S$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="T52" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;T$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+      <c r="U52" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D52&amp;" "&amp;U$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C53" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D53" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E53">
         <v>6000</v>
@@ -3494,53 +4598,73 @@
         <v>0</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D53&amp;" "&amp;I53&amp;" "&amp;H53</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" ref="K53:P68" si="12">"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;K$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;K$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;L$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;M$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;N$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;O$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;P$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q53" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;Q$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R53" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;R$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S53" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;S$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T53" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;T$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U53" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D53&amp;" "&amp;U$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C54" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E54">
         <v>6000</v>
@@ -3552,56 +4676,76 @@
         <v>0</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D54&amp;" "&amp;I54&amp;" "&amp;H54</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;K$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;L$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;M$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;N$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;O$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;P$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q54" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;Q$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R54" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;R$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S54" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;S$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T54" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;T$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U54" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D54&amp;" "&amp;U$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C55" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D55" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E55">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2</v>
@@ -3610,53 +4754,73 @@
         <v>0</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D55&amp;" "&amp;I55&amp;" "&amp;H55</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;K$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;L$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;M$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;N$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;O$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;P$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q55" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;Q$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R55" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;R$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S55" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;S$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T55" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;T$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U55" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D55&amp;" "&amp;U$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C56" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D56" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E56">
         <v>12000</v>
@@ -3668,53 +4832,73 @@
         <v>0</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D56&amp;" "&amp;I56&amp;" "&amp;H56</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;K$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;L$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;M$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;N$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;O$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;P$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q56" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;Q$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R56" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;R$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S56" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;S$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T56" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;T$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U56" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D56&amp;" "&amp;U$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C57" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D57" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E57">
         <v>12000</v>
@@ -3726,56 +4910,76 @@
         <v>0</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D57&amp;" "&amp;I57&amp;" "&amp;H57</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;K$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;L$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;M$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;N$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;O$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;P$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;Q$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;R$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;S$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;T$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D57&amp;" "&amp;U$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C58" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D58" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E58">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>2</v>
@@ -3784,53 +4988,73 @@
         <v>0</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D58&amp;" "&amp;I58&amp;" "&amp;H58</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;K$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;L$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;M$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;N$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;O$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;P$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q58" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;Q$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R58" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;R$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S58" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;S$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T58" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;T$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U58" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D58&amp;" "&amp;U$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C59" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D59" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E59">
         <v>18000</v>
@@ -3842,53 +5066,73 @@
         <v>0</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D59&amp;" "&amp;I59&amp;" "&amp;H59</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;K$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;L$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;M$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;N$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;O$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;P$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q59" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;Q$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R59" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;R$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S59" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;S$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T59" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;T$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U59" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D59&amp;" "&amp;U$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C60" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E60">
         <v>18000</v>
@@ -3900,56 +5144,76 @@
         <v>0</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D60&amp;" "&amp;I60&amp;" "&amp;H60</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;K$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;L$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;M$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;N$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;O$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;P$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q60" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;Q$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R60" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;R$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S60" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;S$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T60" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;T$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U60" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D60&amp;" "&amp;U$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C61" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E61">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>2</v>
@@ -3958,53 +5222,73 @@
         <v>0</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D61&amp;" "&amp;I61&amp;" "&amp;H61</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;K$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;L$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;M$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;N$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;O$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;P$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q61" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;Q$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R61" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;R$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S61" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;S$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T61" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;T$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U61" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D61&amp;" "&amp;U$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C62" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D62" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E62">
         <v>24000</v>
@@ -4016,53 +5300,73 @@
         <v>0</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D62&amp;" "&amp;I62&amp;" "&amp;H62</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;K$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;L$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;M$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;N$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;O$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;P$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q62" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;Q$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R62" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;R$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S62" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;S$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T62" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;T$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U62" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D62&amp;" "&amp;U$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C63" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D63" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E63">
         <v>24000</v>
@@ -4074,111 +5378,151 @@
         <v>0</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D63&amp;" "&amp;I63&amp;" "&amp;H63</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;K$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;L$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;M$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;N$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;O$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;P$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q63" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;Q$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R63" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;R$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S63" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;S$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T63" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;T$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U63" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D63&amp;" "&amp;U$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C64" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D64" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E64">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="s">
         <v>0</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f t="shared" si="5"/>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/6000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D64&amp;" "&amp;I64&amp;" "&amp;H64</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;K$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;L$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;M$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;N$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;O$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;P$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q64" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;Q$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="R64" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;R$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="S64" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;S$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="T64" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;T$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="U64" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D64&amp;" "&amp;U$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C65" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D65" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E65">
         <v>6000</v>
@@ -4190,53 +5534,73 @@
         <v>0</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D65&amp;" "&amp;I65&amp;" "&amp;H65</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;L$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;M$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;N$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;O$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;P$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q65" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;Q$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R65" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;R$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S65" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;S$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T65" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;T$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U65" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D65&amp;" "&amp;U$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C66" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D66" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E66">
         <v>6000</v>
@@ -4248,56 +5612,76 @@
         <v>0</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D66&amp;" "&amp;I66&amp;" "&amp;H66</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;K$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;L$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;M$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;N$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;O$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;P$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q66" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;Q$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R66" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;R$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S66" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;S$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T66" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;T$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U66" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D66&amp;" "&amp;U$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C67" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D67" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="8"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E67">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>1</v>
@@ -4306,53 +5690,73 @@
         <v>0</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f t="shared" si="6"/>
+        <v>Config.NoInclude/DataSets/6000.xml</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D67&amp;" "&amp;I67&amp;" "&amp;H67</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/6000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;K$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;L$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;M$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;N$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;O$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;P$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q67" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;Q$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R67" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;R$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S67" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;S$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T67" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;T$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U67" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D67&amp;" "&amp;U$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D68" t="str">
         <f t="shared" si="4"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68:D75" si="13">"Config.NoInclude/DataShapes/"&amp;B68&amp;"-"&amp;"1.xml"</f>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E68">
         <v>12000</v>
@@ -4364,53 +5768,73 @@
         <v>0</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H99" si="14">"Config.NoInclude/Engines/"&amp;G68&amp;"-"&amp;F68&amp;".xml"</f>
+        <f t="shared" si="5"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I75" si="15">"Config.NoInclude/DataSets/"&amp;E68&amp;".xml"</f>
+        <f t="shared" si="6"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="5"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D68&amp;" "&amp;I68&amp;" "&amp;H68</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;K$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;L$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;M$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;N$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;O$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;P$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q68" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;Q$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R68" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;R$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S68" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;S$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T68" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;T$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U68" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D68&amp;" "&amp;U$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C75" si="16">"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f t="shared" ref="D69:D76" si="7">"Config.NoInclude/DataShapes/"&amp;B69&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E69">
         <v>12000</v>
@@ -4422,56 +5846,76 @@
         <v>0</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H69:H76" si="8">"Config.NoInclude/Engines/"&amp;G69&amp;"-"&amp;F69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I69:I76" si="9">"Config.NoInclude/DataSets/"&amp;E69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J75" si="17">"zzz Both "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;D69&amp;" "&amp;I69&amp;" "&amp;H69</f>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" ref="K69:P75" si="18">"zzz Infer "&amp;$B$1&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;K$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;K$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;L$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;M$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;N$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;O$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;P$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q69" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;Q$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R69" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;R$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S69" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;S$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T69" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;T$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U69" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D69&amp;" "&amp;U$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="C70:C76" si="10">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E70">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>1</v>
@@ -4480,53 +5924,73 @@
         <v>0</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="15"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f t="shared" si="9"/>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="17"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D70&amp;" "&amp;I70&amp;" "&amp;H70</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;K$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;L$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;M$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;N$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;O$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;P$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q70" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;Q$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R70" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;R$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S70" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;S$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T70" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;T$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U70" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D70&amp;" "&amp;U$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E71">
         <v>18000</v>
@@ -4538,53 +6002,73 @@
         <v>0</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="17"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D71&amp;" "&amp;I71&amp;" "&amp;H71</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;K$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;L$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;M$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;N$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;O$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;P$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q71" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;Q$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R71" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;R$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S71" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;S$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T71" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;T$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U71" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D71&amp;" "&amp;U$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E72">
         <v>18000</v>
@@ -4596,56 +6080,76 @@
         <v>0</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="17"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D72&amp;" "&amp;I72&amp;" "&amp;H72</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;K$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;L$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;M$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;N$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;O$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;P$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;Q$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;R$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;S$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;T$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D72&amp;" "&amp;U$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/50-1.xml</v>
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="E73">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>1</v>
@@ -4654,53 +6158,73 @@
         <v>0</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="15"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f t="shared" si="9"/>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="17"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D73&amp;" "&amp;I73&amp;" "&amp;H73</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;K$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;L$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;M$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;N$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;O$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;P$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q73" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;Q$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R73" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;R$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S73" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;S$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T73" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;T$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U73" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D73&amp;" "&amp;U$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/50-1.xml</v>
       </c>
       <c r="E74">
         <v>24000</v>
@@ -4712,53 +6236,73 @@
         <v>0</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="17"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D74&amp;" "&amp;I74&amp;" "&amp;H74</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;K$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;L$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;M$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;N$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;O$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;P$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q74" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;Q$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R74" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;R$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S74" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;S$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T74" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;T$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U74" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D74&amp;" "&amp;U$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/50-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="13"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="E75">
         <v>24000</v>
@@ -4770,40 +6314,138 @@
         <v>0</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="17"/>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D75&amp;" "&amp;I75&amp;" "&amp;H75</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;K$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;L$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;M$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;N$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;O$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;P$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;Q$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;R$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;S$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;T$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U75" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D75&amp;" "&amp;U$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="10"/>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="7"/>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="E76">
+        <v>24000</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="8"/>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="9"/>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J76" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;D76&amp;" "&amp;I76&amp;" "&amp;H76</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" si="18"/>
+      <c r="K76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;K$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
-      <c r="L75" t="str">
-        <f t="shared" si="18"/>
+      <c r="L76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;L$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
-      <c r="M75" t="str">
-        <f t="shared" si="18"/>
+      <c r="M76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;M$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
-      <c r="N75" t="str">
-        <f t="shared" si="18"/>
+      <c r="N76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;N$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
-      <c r="O75" t="str">
-        <f t="shared" si="18"/>
+      <c r="O76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;O$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
-      <c r="P75" t="str">
-        <f t="shared" si="18"/>
+      <c r="P76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;P$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;Q$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="R76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;R$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="S76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;S$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="T76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;T$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="U76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$D76&amp;" "&amp;U$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
   </sheetData>

--- a/TestSets.xlsx
+++ b/TestSets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
   <si>
     <t>SCGD</t>
   </si>
@@ -185,6 +185,9 @@
   <si>
     <t>050</t>
   </si>
+  <si>
+    <t>MEM!</t>
+  </si>
 </sst>
 </file>
 
@@ -207,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -236,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -261,6 +270,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +650,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,6 +2900,9 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -2924,50 +2937,53 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7252</v>
+      </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -3002,50 +3018,53 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4880</v>
+      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -3080,50 +3099,53 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -3158,50 +3180,53 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3476</v>
+      </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -3236,50 +3261,50 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" ref="K35:U44" si="8">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -3357,7 +3382,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -3435,7 +3460,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -3513,7 +3538,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3591,7 +3616,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +3694,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -3747,7 +3772,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3850,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3928,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -3981,7 +4006,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -4059,7 +4084,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +4162,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4240,7 @@
         <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -5883,7 +5908,7 @@
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J100" si="19">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J76" si="19">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K69" t="str">

--- a/TestSets.xlsx
+++ b/TestSets.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
     <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$Q$76</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
   <si>
     <t>SCGD</t>
   </si>
@@ -75,15 +78,6 @@
     <t>Config.NoInclude/DataSets/i2.xml</t>
   </si>
   <si>
-    <t>Config.NoInclude/DataSets/i3.xml</t>
-  </si>
-  <si>
-    <t>Config.NoInclude/DataSets/i4.xml</t>
-  </si>
-  <si>
-    <t>Config.NoInclude/DataSets/i5.xml</t>
-  </si>
-  <si>
     <t>Training DataSet File</t>
   </si>
   <si>
@@ -100,15 +94,6 @@
   </si>
   <si>
     <t>Infer2 cmd</t>
-  </si>
-  <si>
-    <t>Infer3 cmd</t>
-  </si>
-  <si>
-    <t>Infer4 cmd</t>
-  </si>
-  <si>
-    <t>Infer5 cmd</t>
   </si>
   <si>
     <t>Data_Transformation=DT_DELTA</t>
@@ -168,18 +153,6 @@
     <t>Config.NoInclude/DataSets/i0b.xml</t>
   </si>
   <si>
-    <t>Config.NoInclude/DataSets/i1b.xml</t>
-  </si>
-  <si>
-    <t>Config.NoInclude/DataSets/i2b.xml</t>
-  </si>
-  <si>
-    <t>Config.NoInclude/DataSets/i3b.xml</t>
-  </si>
-  <si>
-    <t>Config.NoInclude/DataSets/i4b.xml</t>
-  </si>
-  <si>
     <t>06000</t>
   </si>
   <si>
@@ -187,6 +160,27 @@
   </si>
   <si>
     <t>MEM!</t>
+  </si>
+  <si>
+    <t>Infer0a cmd</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0a.xml</t>
+  </si>
+  <si>
+    <t>Infer0b cmd</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0c.xml</t>
+  </si>
+  <si>
+    <t>Infer0c cmd</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0d.xml</t>
+  </si>
+  <si>
+    <t>Infer0d cmd</t>
   </si>
 </sst>
 </file>
@@ -557,84 +551,84 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -644,42 +638,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U76"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="21" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="17" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -691,31 +686,19 @@
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -723,12 +706,8 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -754,46 +733,34 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6556</v>
       </c>
@@ -804,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F5" t="str">
         <f>"Config.NoInclude/Client.xml"</f>
@@ -827,54 +794,38 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J36" si="3">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:U14" si="4">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f t="shared" ref="K5:Q14" si="4">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -885,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
@@ -908,54 +859,38 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5368</v>
       </c>
@@ -966,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6">
         <v>200</v>
@@ -989,54 +924,38 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -1050,7 +969,7 @@
         <v>12000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="5"/>
@@ -1070,54 +989,38 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1151,54 +1054,38 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1232,54 +1119,38 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1293,7 +1164,7 @@
         <v>18000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="5"/>
@@ -1313,54 +1184,38 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="R11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1394,54 +1249,38 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="R12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1475,54 +1314,38 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="R13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1536,7 +1359,7 @@
         <v>24000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="5"/>
@@ -1556,54 +1379,38 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="R14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1637,54 +1444,38 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:U24" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;K$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f t="shared" ref="K15:Q24" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;K$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="R15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>6348</v>
       </c>
@@ -1718,54 +1509,38 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-      <c r="R16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1776,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="5"/>
@@ -1799,54 +1574,38 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1857,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6">
         <v>100</v>
@@ -1880,54 +1639,38 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="R18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1938,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E19" s="6">
         <v>200</v>
@@ -1961,54 +1704,38 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -2022,7 +1749,7 @@
         <v>12000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="5"/>
@@ -2042,54 +1769,38 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="R20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9312</v>
       </c>
@@ -2123,54 +1834,38 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -2204,54 +1899,38 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-      <c r="R22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -2265,7 +1944,7 @@
         <v>18000</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="5"/>
@@ -2285,54 +1964,38 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -2366,54 +2029,38 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2447,54 +2094,38 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25:U34" si="7">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;K$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f t="shared" ref="K25:Q34" si="7">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;K$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2508,7 +2139,7 @@
         <v>24000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="5"/>
@@ -2528,54 +2159,38 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2609,54 +2224,38 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2690,54 +2289,38 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2416</v>
       </c>
@@ -2748,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="5"/>
@@ -2771,54 +2354,38 @@
       </c>
       <c r="J29" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="L29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="M29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="N29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="O29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="P29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="Q29" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="R29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="S29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="T29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="U29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>4696</v>
       </c>
@@ -2829,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E30" s="6">
         <v>100</v>
@@ -2852,56 +2419,40 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-      <c r="R30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2910,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E31" s="6">
         <v>200</v>
@@ -2933,54 +2484,38 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2994,7 +2529,7 @@
         <v>12000</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="5"/>
@@ -3014,54 +2549,38 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -3095,56 +2614,40 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-      <c r="R33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -3176,54 +2679,38 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -3237,7 +2724,7 @@
         <v>18000</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="5"/>
@@ -3257,54 +2744,38 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35:U44" si="8">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f t="shared" ref="K35:Q44" si="8">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-      <c r="R35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -3335,54 +2806,38 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="R36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="S36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -3413,54 +2868,38 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" ref="J37:J68" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +2910,7 @@
         <v>24000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="5"/>
@@ -3491,54 +2930,38 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="R38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="S38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3569,54 +2992,38 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="R39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="S39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3647,54 +3054,41 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="R40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>9860</v>
+      </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -3702,10 +3096,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="5"/>
@@ -3725,54 +3119,38 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E42" s="6">
         <v>100</v>
@@ -3803,54 +3181,38 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E43" s="6">
         <v>200</v>
@@ -3881,54 +3243,38 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -3939,7 +3285,7 @@
         <v>12000</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="5"/>
@@ -3959,54 +3305,38 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -4037,54 +3367,38 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" ref="K45:U54" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" ref="K45:Q54" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -4115,54 +3429,38 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -4173,7 +3471,7 @@
         <v>18000</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="5"/>
@@ -4193,54 +3491,38 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -4271,54 +3553,38 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -4349,54 +3615,38 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +3657,7 @@
         <v>24000</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="5"/>
@@ -4427,54 +3677,38 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -4505,54 +3739,38 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -4583,54 +3801,41 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="R52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="S52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>3508</v>
+      </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -4638,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="5"/>
@@ -4661,54 +3866,38 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
       <c r="P53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R53" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S53" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U53" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E54" s="6">
         <v>100</v>
@@ -4739,54 +3928,38 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -4794,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E55" s="6">
         <v>200</v>
@@ -4817,54 +3990,38 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" ref="K55:U64" si="14">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;K$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" ref="K55:Q64" si="14">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;K$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4032,7 @@
         <v>12000</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="5"/>
@@ -4895,54 +4052,38 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -4973,54 +4114,38 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -5051,54 +4176,38 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -5109,7 +4218,7 @@
         <v>18000</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="5"/>
@@ -5129,54 +4238,38 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -5207,54 +4300,38 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -5285,54 +4362,38 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -5343,7 +4404,7 @@
         <v>24000</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="5"/>
@@ -5363,54 +4424,38 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -5441,54 +4486,38 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -5519,54 +4548,41 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="R64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="S64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="T64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="U64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>4916</v>
+      </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -5574,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="5"/>
@@ -5597,54 +4613,38 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" ref="K65:U76" si="15">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" ref="K65:Q76" si="15">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="P65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R65" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S65" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U65" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -5652,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E66" s="6">
         <v>100</v>
@@ -5675,54 +4675,38 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -5730,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E67" s="6">
         <v>200</v>
@@ -5753,54 +4737,38 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -5811,7 +4779,7 @@
         <v>12000</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="5"/>
@@ -5831,54 +4799,38 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" si="12"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -5909,54 +4861,38 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" ref="J69:J76" si="19">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -5987,54 +4923,38 @@
       </c>
       <c r="J70" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -6045,7 +4965,7 @@
         <v>18000</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="20"/>
@@ -6065,54 +4985,38 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -6143,54 +5047,38 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -6221,54 +5109,38 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -6279,7 +5151,7 @@
         <v>24000</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="20"/>
@@ -6299,54 +5171,38 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -6377,54 +5233,38 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -6455,54 +5295,50 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="19"/>
-        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i5.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="R76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="S76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="T76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i3b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="U76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i4b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:Q76">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="06000"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="050"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestSets.xlsx
+++ b/TestSets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>SCGD</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Infer0d cmd</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0a-bsc1.xml</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0b-bsc1.xml</t>
+  </si>
+  <si>
+    <t>Config.NoInclude/DataSets/i0c-bsc1.xml</t>
   </si>
 </sst>
 </file>
@@ -639,13 +648,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="M41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="Q41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,9 +670,11 @@
     <col min="9" max="9" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" customWidth="1"/>
     <col min="11" max="17" width="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -672,7 +683,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22</v>
       </c>
@@ -697,8 +708,17 @@
       <c r="Q2" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -707,7 +727,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -760,7 +780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6556</v>
       </c>
@@ -825,7 +845,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -890,7 +910,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5368</v>
       </c>
@@ -955,7 +975,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1085,7 +1105,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1150,7 +1170,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1215,7 +1235,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1280,7 +1300,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1345,7 +1365,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1410,7 +1430,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1475,7 +1495,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>6348</v>
       </c>
@@ -1540,7 +1560,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -2320,7 +2340,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2416</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2645,7 +2665,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
@@ -2710,7 +2730,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2747,7 +2767,7 @@
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35:Q44" si="8">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <f t="shared" ref="K35:T44" si="8">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="L35" t="str">
@@ -2775,7 +2795,7 @@
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2837,7 +2857,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -2899,7 +2919,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3023,7 +3043,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>9860</v>
       </c>
@@ -3149,8 +3169,20 @@
         <f t="shared" si="8"/>
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="R41" t="str">
+        <f t="shared" si="8"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="8"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="8"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3244,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3306,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -3336,7 +3368,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -3370,7 +3402,7 @@
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" ref="K45:Q54" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <f t="shared" ref="K45:T54" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L45" t="str">
@@ -3398,7 +3430,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3492,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3554,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -3584,7 +3616,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3678,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +3740,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3802,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +3864,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>3508</v>
       </c>
@@ -3896,8 +3928,20 @@
         <f t="shared" si="13"/>
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="R53" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +4003,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -4021,7 +4065,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4127,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -4145,7 +4189,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4251,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4313,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4375,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4437,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -4455,7 +4499,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -4517,7 +4561,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -4579,7 +4623,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>4916</v>
       </c>
@@ -4616,7 +4660,7 @@
         <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" ref="K65:Q76" si="15">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <f t="shared" ref="K65:T76" si="15">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
       <c r="L65" t="str">
@@ -4643,8 +4687,20 @@
         <f t="shared" si="15"/>
         <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="R65" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4762,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +4824,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4886,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4948,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -4954,7 +5010,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -5016,7 +5072,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5134,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5196,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -5202,7 +5258,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +5320,7 @@
         <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -5328,6 +5384,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:Q76">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SCGD"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="06000"/>
@@ -5340,5 +5401,6 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestSets.xlsx
+++ b/TestSets.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
     <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$Q$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="54">
   <si>
     <t>SCGD</t>
   </si>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -274,6 +274,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,13 +570,13 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -580,7 +590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -591,7 +601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -599,7 +609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -607,7 +617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -615,27 +625,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -647,34 +657,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="Q41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="17" width="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -683,9 +691,9 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -718,7 +726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -727,7 +735,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -780,7 +788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6556</v>
       </c>
@@ -801,51 +809,51 @@
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G36" si="0">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
+        <f>"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H36" si="1">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
+        <f>"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I36" si="2">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
+        <f>"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J36" si="3">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:Q14" si="4">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;L$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;M$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;N$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;O$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;P$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;Q$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -862,120 +870,123 @@
         <v>100</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F69" si="5">"Config.NoInclude/Client.xml"</f>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E6&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B6&amp;"-"&amp;C6&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D6&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G6&amp;" "&amp;I6&amp;" "&amp;H6</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;K$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;L$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;M$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;N$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;O$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;P$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;Q$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5368</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="16">
         <v>200</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="5"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
+      <c r="F7" s="13" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G7" s="13" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E7&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
+      <c r="H7" s="13" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B7&amp;"-"&amp;C7&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
+      <c r="I7" s="13" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D7&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="13" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G7&amp;" "&amp;I7&amp;" "&amp;H7</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
+      </c>
+      <c r="K7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;K$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="L7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;L$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="M7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;M$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="N7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;N$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="O7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;O$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="P7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;P$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="Q7" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;Q$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -992,55 +1003,55 @@
         <v>42</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E8&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B8&amp;"-"&amp;C8&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D8&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G8&amp;" "&amp;I8&amp;" "&amp;H8</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;K$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;L$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;M$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;N$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;O$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;P$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;Q$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1057,55 +1068,55 @@
         <v>100</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E9&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B9&amp;"-"&amp;C9&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D9&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G9&amp;" "&amp;I9&amp;" "&amp;H9</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;K$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;L$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;M$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;N$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;O$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;P$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;Q$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1122,55 +1133,55 @@
         <v>200</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E10&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B10&amp;"-"&amp;C10&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D10&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G10&amp;" "&amp;I10&amp;" "&amp;H10</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;K$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;L$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;M$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;N$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;O$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;P$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;Q$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1187,55 +1198,55 @@
         <v>42</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E11&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B11&amp;"-"&amp;C11&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D11&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G11&amp;" "&amp;I11&amp;" "&amp;H11</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;K$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;L$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;M$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;N$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;O$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;P$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;Q$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1252,55 +1263,55 @@
         <v>100</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E12&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B12&amp;"-"&amp;C12&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D12&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G12&amp;" "&amp;I12&amp;" "&amp;H12</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;K$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;L$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;M$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;N$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;O$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;P$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;Q$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1317,55 +1328,55 @@
         <v>200</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E13&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B13&amp;"-"&amp;C13&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D13&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G13&amp;" "&amp;I13&amp;" "&amp;H13</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;K$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;L$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;M$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;N$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;O$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;P$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;Q$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1382,55 +1393,55 @@
         <v>42</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E14&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B14&amp;"-"&amp;C14&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D14&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G14&amp;" "&amp;I14&amp;" "&amp;H14</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;K$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;L$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;M$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;N$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;O$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;P$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="4"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;Q$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1447,55 +1458,55 @@
         <v>100</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E15&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B15&amp;"-"&amp;C15&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D15&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G15&amp;" "&amp;I15&amp;" "&amp;H15</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ref="K15:Q24" si="6">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;K$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;K$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;L$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;M$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;N$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;O$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;P$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;Q$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6348</v>
       </c>
@@ -1512,55 +1523,55 @@
         <v>200</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E16&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B16&amp;"-"&amp;C16&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D16&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G16&amp;" "&amp;I16&amp;" "&amp;H16</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;K$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;L$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;M$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;N$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;O$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;P$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;Q$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1577,55 +1588,55 @@
         <v>42</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E17&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B17&amp;"-"&amp;C17&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D17&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;K$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;L$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;M$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;N$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;O$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;P$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;Q$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1642,55 +1653,55 @@
         <v>100</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E18&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B18&amp;"-"&amp;C18&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D18&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G18&amp;" "&amp;I18&amp;" "&amp;H18</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;K$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;L$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;M$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;N$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;O$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;P$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;Q$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1707,55 +1718,55 @@
         <v>200</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E19&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B19&amp;"-"&amp;C19&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D19&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G19&amp;" "&amp;I19&amp;" "&amp;H19</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;K$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;L$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;M$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;N$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;O$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;P$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;Q$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -1772,55 +1783,55 @@
         <v>42</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E20&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B20&amp;"-"&amp;C20&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D20&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G20&amp;" "&amp;I20&amp;" "&amp;H20</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;K$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;L$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;M$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;N$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;O$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;P$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;Q$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9312</v>
       </c>
@@ -1837,55 +1848,55 @@
         <v>100</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E21&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B21&amp;"-"&amp;C21&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D21&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G21&amp;" "&amp;I21&amp;" "&amp;H21</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;K$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;L$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;M$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;N$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;O$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;P$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;Q$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -1902,55 +1913,55 @@
         <v>200</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E22&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B22&amp;"-"&amp;C22&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D22&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G22&amp;" "&amp;I22&amp;" "&amp;H22</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;K$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;L$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;M$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;N$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;O$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;P$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;Q$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -1967,55 +1978,55 @@
         <v>42</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E23&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B23&amp;"-"&amp;C23&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D23&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G23&amp;" "&amp;I23&amp;" "&amp;H23</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;K$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;L$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;M$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;N$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;O$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;P$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;Q$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -2032,55 +2043,55 @@
         <v>100</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E24&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B24&amp;"-"&amp;C24&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D24&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G24&amp;" "&amp;I24&amp;" "&amp;H24</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;K$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;L$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;M$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;N$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;O$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;P$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="6"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;Q$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2097,55 +2108,55 @@
         <v>200</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E25&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B25&amp;"-"&amp;C25&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D25&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G25&amp;" "&amp;I25&amp;" "&amp;H25</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25:Q34" si="7">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;K$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;K$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;L$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;M$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;N$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;O$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;P$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;Q$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2162,55 +2173,55 @@
         <v>42</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E26&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B26&amp;"-"&amp;C26&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D26&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G26&amp;" "&amp;I26&amp;" "&amp;H26</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;K$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;L$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;M$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;N$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;O$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;P$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;Q$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2227,55 +2238,55 @@
         <v>100</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E27&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B27&amp;"-"&amp;C27&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D27&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G27&amp;" "&amp;I27&amp;" "&amp;H27</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;K$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;L$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;M$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;N$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;O$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;P$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;Q$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2292,55 +2303,55 @@
         <v>200</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E28&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B28&amp;"-"&amp;C28&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D28&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G28&amp;" "&amp;I28&amp;" "&amp;H28</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;K$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;L$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;M$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;N$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;O$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;P$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;Q$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>2416</v>
       </c>
@@ -2357,55 +2368,55 @@
         <v>42</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E29&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B29&amp;"-"&amp;C29&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D29&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G29&amp;" "&amp;I29&amp;" "&amp;H29</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;K$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="L29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;L$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;M$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="N29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;N$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="O29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;O$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="P29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;P$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
       </c>
       <c r="Q29" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;Q$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>4696</v>
       </c>
@@ -2422,55 +2433,55 @@
         <v>100</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E30&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B30&amp;"-"&amp;C30&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D30&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G30&amp;" "&amp;I30&amp;" "&amp;H30</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;K$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;L$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;M$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;N$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;O$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;P$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;Q$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
@@ -2487,55 +2498,55 @@
         <v>200</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E31&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B31&amp;"-"&amp;C31&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D31&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G31&amp;" "&amp;I31&amp;" "&amp;H31</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;K$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;L$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;M$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;N$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;O$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;P$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;Q$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2552,55 +2563,55 @@
         <v>42</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E32&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B32&amp;"-"&amp;C32&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D32&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G32&amp;" "&amp;I32&amp;" "&amp;H32</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;K$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;L$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;M$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;N$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;O$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;P$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;Q$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2617,55 +2628,55 @@
         <v>100</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E33&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B33&amp;"-"&amp;C33&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D33&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G33&amp;" "&amp;I33&amp;" "&amp;H33</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;K$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;L$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;M$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;N$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;O$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;P$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;Q$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
@@ -2682,55 +2693,55 @@
         <v>200</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E34&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B34&amp;"-"&amp;C34&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D34&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G34&amp;" "&amp;I34&amp;" "&amp;H34</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;K$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;L$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;M$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;N$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;O$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;P$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="7"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;Q$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2747,55 +2758,55 @@
         <v>42</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E35&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B35&amp;"-"&amp;C35&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D35&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G35&amp;" "&amp;I35&amp;" "&amp;H35</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ref="K35:T44" si="8">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;L$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;M$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;N$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;O$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;P$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;Q$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2809,55 +2820,55 @@
         <v>100</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E36&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
+        <f>"Config.NoInclude/Engines/"&amp;B36&amp;"-"&amp;C36&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D36&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="3"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G36&amp;" "&amp;I36&amp;" "&amp;H36</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;K$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;L$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;M$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;N$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;O$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;P$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;Q$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -2871,55 +2882,55 @@
         <v>200</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37:G68" si="9">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
+        <f>"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H68" si="10">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
+        <f>"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37:I68" si="11">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
+        <f>"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37:J68" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;K$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;L$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;M$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;N$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;O$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;P$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;Q$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -2933,55 +2944,55 @@
         <v>42</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E38&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B38&amp;"-"&amp;C38&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D38&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G38&amp;" "&amp;I38&amp;" "&amp;H38</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;K$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;L$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;M$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;N$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;O$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;P$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;Q$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2995,55 +3006,55 @@
         <v>100</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E39&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B39&amp;"-"&amp;C39&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D39&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G39&amp;" "&amp;I39&amp;" "&amp;H39</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;K$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;L$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;M$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;N$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;O$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;P$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;Q$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3057,57 +3068,57 @@
         <v>200</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E40&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B40&amp;"-"&amp;C40&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D40&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G40&amp;" "&amp;I40&amp;" "&amp;H40</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;K$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;L$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;M$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;N$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;O$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;P$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;Q$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>9860</v>
+        <v>5764</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3122,67 +3133,70 @@
         <v>42</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E41&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B41&amp;"-"&amp;C41&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D41&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G41&amp;" "&amp;I41&amp;" "&amp;H41</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;K$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;L$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;M$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;N$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;O$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;P$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;Q$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;R$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;S$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="8"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 9860</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;T$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5648</v>
+      </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -3196,179 +3210,188 @@
         <v>100</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E42&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B42&amp;"-"&amp;C42&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D42&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G42&amp;" "&amp;I42&amp;" "&amp;H42</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;K$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;L$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;M$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;N$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;O$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;P$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;Q$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>6176</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="13">
         <v>2</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="16">
         <v>200</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="5"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="9"/>
+      <c r="F43" s="13" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G43" s="13" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E43&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="10"/>
+      <c r="H43" s="13" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B43&amp;"-"&amp;C43&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" si="11"/>
+      <c r="I43" s="13" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D43&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
-      <c r="J43" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="J43" s="13" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G43&amp;" "&amp;I43&amp;" "&amp;H43</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+      </c>
+      <c r="K43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;K$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="L43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;L$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="M43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;M$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="N43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;N$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="O43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;O$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="P43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;P$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="Q43" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;Q$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
+      </c>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="13">
         <v>2</v>
       </c>
-      <c r="D44" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>42</v>
+      <c r="D44" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="6">
+        <v>500</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E44&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B44&amp;"-"&amp;C44&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D44&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G44&amp;" "&amp;I44&amp;" "&amp;H44</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;K$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;L$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;M$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;N$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;O$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;P$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;Q$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5356</v>
+      </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -3378,59 +3401,62 @@
       <c r="D45" s="6">
         <v>12000</v>
       </c>
-      <c r="E45" s="6">
-        <v>100</v>
+      <c r="E45" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E45&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B45&amp;"-"&amp;C45&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D45&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G45&amp;" "&amp;I45&amp;" "&amp;H45</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" ref="K45:T54" si="13">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;L$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;M$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;N$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;O$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;P$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;Q$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>956</v>
+      </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -3441,58 +3467,61 @@
         <v>12000</v>
       </c>
       <c r="E46" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E46&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B46&amp;"-"&amp;C46&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D46&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G46&amp;" "&amp;I46&amp;" "&amp;H46</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;K$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;L$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;M$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;N$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;O$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;P$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;Q$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8195</v>
+      </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -3500,61 +3529,61 @@
         <v>2</v>
       </c>
       <c r="D47" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>42</v>
+        <v>12000</v>
+      </c>
+      <c r="E47" s="6">
+        <v>200</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E47&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B47&amp;"-"&amp;C47&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D47&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G47&amp;" "&amp;I47&amp;" "&amp;H47</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;K$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;L$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;M$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;N$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;O$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;P$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;Q$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -3562,61 +3591,64 @@
         <v>2</v>
       </c>
       <c r="D48" s="6">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="E48" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E48&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B48&amp;"-"&amp;C48&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D48&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G48&amp;" "&amp;I48&amp;" "&amp;H48</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;K$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;L$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;M$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;N$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;O$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;P$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;Q$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8064</v>
+      </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -3626,59 +3658,62 @@
       <c r="D49" s="6">
         <v>18000</v>
       </c>
-      <c r="E49" s="6">
-        <v>200</v>
+      <c r="E49" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E49&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B49&amp;"-"&amp;C49&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="11"/>
+        <f>"Config.NoInclude/DataSets/"&amp;D49&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G49&amp;" "&amp;I49&amp;" "&amp;H49</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;K$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;L$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;M$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;N$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;O$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;P$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;Q$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6435</v>
+      </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -3686,61 +3721,64 @@
         <v>2</v>
       </c>
       <c r="D50" s="6">
-        <v>24000</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>42</v>
+        <v>18000</v>
+      </c>
+      <c r="E50" s="6">
+        <v>100</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E50&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B50&amp;"-"&amp;C50&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D50&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G50&amp;" "&amp;I50&amp;" "&amp;H50</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;K$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;L$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;M$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;N$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;O$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;P$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;Q$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7476</v>
+      </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -3748,61 +3786,61 @@
         <v>2</v>
       </c>
       <c r="D51" s="6">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E51" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E51&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B51&amp;"-"&amp;C51&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D51&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G51&amp;" "&amp;I51&amp;" "&amp;H51</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;K$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;L$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;M$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;N$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;O$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;P$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;Q$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -3810,572 +3848,590 @@
         <v>2</v>
       </c>
       <c r="D52" s="6">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="E52" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E52&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B52&amp;"-"&amp;C52&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D52&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G52&amp;" "&amp;I52&amp;" "&amp;H52</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;K$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;L$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;M$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;N$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;O$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;P$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
-        <v>3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;Q$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5212</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>41</v>
+      <c r="D53" s="6">
+        <v>24000</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E53&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B53&amp;"-"&amp;C53&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D53&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G53&amp;" "&amp;I53&amp;" "&amp;H53</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;K$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;L$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;M$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;N$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;O$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;P$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
-      </c>
-      <c r="R53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
-      </c>
-      <c r="S53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="13"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 3508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;Q$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8636</v>
+      </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>41</v>
+      <c r="D54" s="6">
+        <v>24000</v>
       </c>
       <c r="E54" s="6">
         <v>100</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E54&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B54&amp;"-"&amp;C54&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D54&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G54&amp;" "&amp;I54&amp;" "&amp;H54</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;K$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;L$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;M$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;N$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;O$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;P$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;Q$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8420</v>
+      </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>41</v>
+      <c r="D55" s="6">
+        <v>24000</v>
       </c>
       <c r="E55" s="6">
         <v>200</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E55&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B55&amp;"-"&amp;C55&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D55&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G55&amp;" "&amp;I55&amp;" "&amp;H55</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" ref="K55:Q64" si="14">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;K$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;K$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;L$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;M$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;N$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;O$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;P$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;Q$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>42</v>
+        <v>24000</v>
+      </c>
+      <c r="E56" s="6">
+        <v>500</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E56&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B56&amp;"-"&amp;C56&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D56&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G56&amp;" "&amp;I56&amp;" "&amp;H56</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;K$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;L$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;M$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;N$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;O$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;P$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;Q$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>5920</v>
+      </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E57" s="6">
-        <v>100</v>
+      <c r="D57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E57&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B57&amp;"-"&amp;C57&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D57&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G57&amp;" "&amp;I57&amp;" "&amp;H57</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;K$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;L$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;M$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;N$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;O$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;P$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;Q$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+      </c>
+      <c r="R57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;R$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+      </c>
+      <c r="S57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;S$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+      </c>
+      <c r="T57" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;T$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4935</v>
+      </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="6">
-        <v>12000</v>
+      <c r="D58" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E58" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E58&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B58&amp;"-"&amp;C58&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D58&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G58&amp;" "&amp;I58&amp;" "&amp;H58</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;K$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;L$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;M$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;N$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;O$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;P$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;Q$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7360</v>
+      </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>42</v>
+      <c r="D59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="6">
+        <v>200</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E59&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B59&amp;"-"&amp;C59&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D59&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G59&amp;" "&amp;I59&amp;" "&amp;H59</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;K$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;L$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;M$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;N$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;O$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;P$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;Q$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="6">
-        <v>18000</v>
+      <c r="D60" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E60" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E60&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B60&amp;"-"&amp;C60&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D60&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G60&amp;" "&amp;I60&amp;" "&amp;H60</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;K$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;L$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;M$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;N$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;O$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;P$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;Q$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6307</v>
+      </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -4383,61 +4439,64 @@
         <v>2</v>
       </c>
       <c r="D61" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E61" s="6">
-        <v>200</v>
+        <v>12000</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E61&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B61&amp;"-"&amp;C61&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D61&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G61&amp;" "&amp;I61&amp;" "&amp;H61</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;K$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;L$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;M$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;N$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;O$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;P$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;Q$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6827</v>
+      </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -4445,61 +4504,64 @@
         <v>2</v>
       </c>
       <c r="D62" s="6">
-        <v>24000</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>42</v>
+        <v>12000</v>
+      </c>
+      <c r="E62" s="6">
+        <v>100</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E62&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B62&amp;"-"&amp;C62&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D62&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G62&amp;" "&amp;I62&amp;" "&amp;H62</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;K$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;L$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;M$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;N$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;O$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;P$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;Q$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7376</v>
+      </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -4507,61 +4569,61 @@
         <v>2</v>
       </c>
       <c r="D63" s="6">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E63" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E63&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B63&amp;"-"&amp;C63&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D63&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G63&amp;" "&amp;I63&amp;" "&amp;H63</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;K$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;L$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;M$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;N$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;O$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;P$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;Q$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -4569,837 +4631,1602 @@
         <v>2</v>
       </c>
       <c r="D64" s="6">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E64" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E64&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="10"/>
+        <f>"Config.NoInclude/Engines/"&amp;B64&amp;"-"&amp;C64&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D64&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G64&amp;" "&amp;I64&amp;" "&amp;H64</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;K$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;L$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;M$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;N$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;O$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;P$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
-        <v>4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;Q$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8892</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D65" s="6">
+        <v>18000</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E65&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B65&amp;"-"&amp;C65&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D65&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G65&amp;" "&amp;I65&amp;" "&amp;H65</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" ref="K65:T76" si="15">"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;L$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;M$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;N$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;O$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;P$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
-      </c>
-      <c r="R65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
-      </c>
-      <c r="S65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" si="15"/>
-        <v>zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 4916</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;Q$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6396</v>
+      </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D66" s="6">
+        <v>18000</v>
       </c>
       <c r="E66" s="6">
         <v>100</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E66&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B66&amp;"-"&amp;C66&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D66&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G66&amp;" "&amp;I66&amp;" "&amp;H66</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;K$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;L$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;M$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;N$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;O$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;P$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;Q$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7532</v>
+      </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D67" s="6">
+        <v>18000</v>
       </c>
       <c r="E67" s="6">
         <v>200</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="9"/>
+        <f>"Config.NoInclude/DataShapes/"&amp;E67&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B67&amp;"-"&amp;C67&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/06000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D67&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G67&amp;" "&amp;I67&amp;" "&amp;H67</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;K$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;L$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;M$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;N$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;O$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;P$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;Q$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>42</v>
+        <v>18000</v>
+      </c>
+      <c r="E68" s="6">
+        <v>500</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="9"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E68&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="10"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B68&amp;"-"&amp;C68&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="11"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D68&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="12"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G68&amp;" "&amp;I68&amp;" "&amp;H68</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;K$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;L$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;M$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;N$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;O$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;P$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;Q$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1212</v>
+      </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="6">
-        <v>12000</v>
-      </c>
-      <c r="E69" s="6">
-        <v>100</v>
+        <v>24000</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="5"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ref="G69:G76" si="16">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H76" si="17">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I76" si="18">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J76" si="19">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;K$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;L$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;M$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;N$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;O$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;P$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;Q$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5731</v>
+      </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="6">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E70" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" ref="F70:F76" si="20">"Config.NoInclude/Client.xml"</f>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E70&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="17"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B70&amp;"-"&amp;C70&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/DataSets/12000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D70&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G70&amp;" "&amp;I70&amp;" "&amp;H70</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;K$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;L$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;M$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;N$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;O$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;P$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;Q$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5892</v>
+      </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>42</v>
+        <v>24000</v>
+      </c>
+      <c r="E71" s="6">
+        <v>200</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="20"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E71&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="17"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"Config.NoInclude/Engines/"&amp;B71&amp;"-"&amp;C71&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D71&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G71&amp;" "&amp;I71&amp;" "&amp;H71</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;K$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;L$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;M$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;N$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;O$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;P$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;Q$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>24000</v>
+      </c>
+      <c r="E72" s="6">
+        <v>500</v>
+      </c>
+      <c r="F72" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G72" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E72&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H72" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B72&amp;"-"&amp;C72&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="I72" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D72&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J72" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G72&amp;" "&amp;I72&amp;" "&amp;H72</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
+      </c>
+      <c r="K72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;K$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="L72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;L$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="M72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;M$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="N72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;N$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="O72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;O$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="P72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;P$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+      <c r="Q72" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;Q$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>8500</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E72" s="6">
-        <v>100</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="20"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="17"/>
+      <c r="D73" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G73" s="13" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E73&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H73" s="13" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B73&amp;"-"&amp;C73&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="I72" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="P72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6">
-        <v>18000</v>
-      </c>
-      <c r="E73" s="6">
-        <v>200</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="20"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/DataShapes/200-1.xml</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="17"/>
-        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/DataSets/18000.xml</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="L73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="M73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="P73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="13" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D73&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J73" s="13" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G73&amp;" "&amp;I73&amp;" "&amp;H73</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;K$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="L73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;L$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="M73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;M$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="N73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;N$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="O73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;O$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="P73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;P$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="Q73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;Q$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="R73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;R$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="S73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;S$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+      <c r="T73" s="13" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;T$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>5304</v>
+      </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="6">
-        <v>24000</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>42</v>
+      <c r="D74" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="6">
+        <v>100</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="20"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E74&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="17"/>
+        <f>"Config.NoInclude/Engines/"&amp;B74&amp;"-"&amp;C74&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D74&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G74&amp;" "&amp;I74&amp;" "&amp;H74</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;K$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;L$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;M$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;N$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;O$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;P$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;Q$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="6">
-        <v>24000</v>
+      <c r="D75" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E75" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="20"/>
+        <f>"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="16"/>
-        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+        <f>"Config.NoInclude/DataShapes/"&amp;E75&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="17"/>
+        <f>"Config.NoInclude/Engines/"&amp;B75&amp;"-"&amp;C75&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="18"/>
-        <v>Config.NoInclude/DataSets/24000.xml</v>
+        <f>"Config.NoInclude/DataSets/"&amp;D75&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G75&amp;" "&amp;I75&amp;" "&amp;H75</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;K$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;L$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;M$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;N$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;O$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;P$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;Q$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="6">
+        <v>500</v>
+      </c>
+      <c r="F76" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G76" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E76&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H76" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B76&amp;"-"&amp;C76&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I76" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D76&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/06000.xml</v>
+      </c>
+      <c r="J76" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G76&amp;" "&amp;I76&amp;" "&amp;H76</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;K$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;L$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;M$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;N$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;O$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;P$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q76" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;Q$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>5776</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G77" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E77&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H77" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B77&amp;"-"&amp;C77&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I77" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D77&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J77" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G77&amp;" "&amp;I77&amp;" "&amp;H77</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;K$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+      <c r="L77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;L$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+      <c r="M77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;M$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+      <c r="N77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;N$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+      <c r="O77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;O$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+      <c r="P77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;P$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+      <c r="Q77" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;Q$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E78" s="6">
+        <v>100</v>
+      </c>
+      <c r="F78" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G78" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E78&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H78" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B78&amp;"-"&amp;C78&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I78" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D78&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J78" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G78&amp;" "&amp;I78&amp;" "&amp;H78</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;K$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;L$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;M$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;N$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;O$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;P$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q78" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;Q$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E79" s="6">
+        <v>200</v>
+      </c>
+      <c r="F79" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G79" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E79&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H79" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B79&amp;"-"&amp;C79&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I79" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D79&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J79" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G79&amp;" "&amp;I79&amp;" "&amp;H79</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;K$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;L$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;M$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;N$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;O$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;P$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q79" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;Q$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E80" s="6">
+        <v>500</v>
+      </c>
+      <c r="F80" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G80" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E80&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H80" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B80&amp;"-"&amp;C80&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I80" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D80&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/12000.xml</v>
+      </c>
+      <c r="J80" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G80&amp;" "&amp;I80&amp;" "&amp;H80</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;K$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;L$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;M$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;N$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;O$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;P$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q80" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;Q$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G81" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E81&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H81" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B81&amp;"-"&amp;C81&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I81" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D81&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J81" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G81&amp;" "&amp;I81&amp;" "&amp;H81</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;K$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;L$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;M$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;N$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;O$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;P$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q81" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;Q$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E82" s="6">
+        <v>100</v>
+      </c>
+      <c r="F82" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G82" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E82&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H82" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B82&amp;"-"&amp;C82&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I82" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D82&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J82" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G82&amp;" "&amp;I82&amp;" "&amp;H82</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;K$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;L$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;M$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;N$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;O$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;P$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q82" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;Q$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E83" s="6">
+        <v>200</v>
+      </c>
+      <c r="F83" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G83" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E83&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/200-1.xml</v>
+      </c>
+      <c r="H83" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B83&amp;"-"&amp;C83&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I83" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D83&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J83" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G83&amp;" "&amp;I83&amp;" "&amp;H83</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;K$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;L$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;M$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;N$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;O$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;P$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q83" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;Q$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E84" s="6">
+        <v>500</v>
+      </c>
+      <c r="F84" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G84" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E84&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H84" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B84&amp;"-"&amp;C84&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I84" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D84&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/18000.xml</v>
+      </c>
+      <c r="J84" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G84&amp;" "&amp;I84&amp;" "&amp;H84</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;K$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;L$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;M$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;N$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;O$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;P$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q84" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;Q$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6">
         <v>24000</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E85" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G85" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E85&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/050-1.xml</v>
+      </c>
+      <c r="H85" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B85&amp;"-"&amp;C85&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I85" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D85&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J85" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G85&amp;" "&amp;I85&amp;" "&amp;H85</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;K$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;L$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;M$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;N$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;O$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;P$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q85" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;Q$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6">
+        <v>24000</v>
+      </c>
+      <c r="E86" s="6">
+        <v>100</v>
+      </c>
+      <c r="F86" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G86" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E86&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/100-1.xml</v>
+      </c>
+      <c r="H86" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B86&amp;"-"&amp;C86&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I86" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D86&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J86" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G86&amp;" "&amp;I86&amp;" "&amp;H86</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;K$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;L$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;M$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;N$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;O$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;P$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q86" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;Q$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6">
+        <v>24000</v>
+      </c>
+      <c r="E87" s="6">
         <v>200</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="20"/>
-        <v>Config.NoInclude/Client.xml</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="16"/>
+      <c r="F87" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G87" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E87&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
-      <c r="H76" t="str">
-        <f t="shared" si="17"/>
+      <c r="H87" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B87&amp;"-"&amp;C87&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="18"/>
+      <c r="I87" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D87&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
-      <c r="J76" t="str">
-        <f t="shared" si="19"/>
-        <v>zzz Both 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
-      </c>
-      <c r="K76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="L76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="M76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="P76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q76" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">zzz Infer 22 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      <c r="J87" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G87&amp;" "&amp;I87&amp;" "&amp;H87</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;K$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;L$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;M$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;N$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;O$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;P$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q87" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;Q$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6">
+        <v>24000</v>
+      </c>
+      <c r="E88" s="6">
+        <v>500</v>
+      </c>
+      <c r="F88" t="str">
+        <f>"Config.NoInclude/Client.xml"</f>
+        <v>Config.NoInclude/Client.xml</v>
+      </c>
+      <c r="G88" t="str">
+        <f>"Config.NoInclude/DataShapes/"&amp;E88&amp;"-"&amp;"1.xml"</f>
+        <v>Config.NoInclude/DataShapes/500-1.xml</v>
+      </c>
+      <c r="H88" t="str">
+        <f>"Config.NoInclude/Engines/"&amp;B88&amp;"-"&amp;C88&amp;".xml"</f>
+        <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="I88" t="str">
+        <f>"Config.NoInclude/DataSets/"&amp;D88&amp;".xml"</f>
+        <v>Config.NoInclude/DataSets/24000.xml</v>
+      </c>
+      <c r="J88" t="str">
+        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G88&amp;" "&amp;I88&amp;" "&amp;H88</f>
+        <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
+      </c>
+      <c r="K88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;K$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="L88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;L$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="M88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;M$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="N88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;N$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="O88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;O$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="P88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;P$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+      </c>
+      <c r="Q88" t="str">
+        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;Q$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Q76">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="SCGD"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="06000"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="050"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A4:T76">
+    <sortState ref="A5:T76">
+      <sortCondition descending="1" ref="B5:B76"/>
+      <sortCondition ref="E5:E76"/>
+      <sortCondition ref="C5:C76"/>
+      <sortCondition ref="D5:D76"/>
+    </sortState>
   </autoFilter>
+  <sortState ref="A5:T88">
+    <sortCondition descending="1" ref="B5:B88"/>
+    <sortCondition ref="C5:C88"/>
+    <sortCondition ref="D5:D88"/>
+    <sortCondition ref="E5:E88"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestSets.xlsx
+++ b/TestSets.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="21-Desc" sheetId="2" r:id="rId1"/>
     <sheet name="21-Scripts" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$T$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'21-Scripts'!$A$4:$S$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
   <si>
     <t>SCGD</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>OOS Infer Datasets</t>
-  </si>
-  <si>
-    <t>Infer0 cmd</t>
-  </si>
-  <si>
-    <t>Infer1 cmd</t>
-  </si>
-  <si>
-    <t>Infer2 cmd</t>
   </si>
   <si>
     <t>Data_Transformation=DT_DELTA</t>
@@ -162,25 +153,10 @@
     <t>MEM!</t>
   </si>
   <si>
-    <t>Infer0a cmd</t>
-  </si>
-  <si>
     <t>Config.NoInclude/DataSets/i0a.xml</t>
   </si>
   <si>
-    <t>Infer0b cmd</t>
-  </si>
-  <si>
     <t>Config.NoInclude/DataSets/i0c.xml</t>
-  </si>
-  <si>
-    <t>Infer0c cmd</t>
-  </si>
-  <si>
-    <t>Config.NoInclude/DataSets/i0d.xml</t>
-  </si>
-  <si>
-    <t>Infer0d cmd</t>
   </si>
   <si>
     <t>Config.NoInclude/DataSets/i0a-bsc1.xml</t>
@@ -190,6 +166,12 @@
   </si>
   <si>
     <t>Config.NoInclude/DataSets/i0c-bsc1.xml</t>
+  </si>
+  <si>
+    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</t>
+  </si>
+  <si>
+    <t>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</t>
   </si>
 </sst>
 </file>
@@ -570,84 +552,84 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -657,32 +639,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="17" width="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" customWidth="1"/>
+    <col min="12" max="16" width="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -691,7 +675,7 @@
       </c>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -705,37 +689,33 @@
         <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -766,29 +746,44 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="str">
+        <f>RIGHT(K2,LEN(K2)-26)</f>
+        <v>i0.xml</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:S4" si="0">RIGHT(L2,LEN(L2)-26)</f>
+        <v>i1.xml</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i2.xml</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i0a.xml</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i0b.xml</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i0c.xml</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i0a-bsc1.xml</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i0b-bsc1.xml</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>i0c-bsc1.xml</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6556</v>
       </c>
@@ -799,61 +794,57 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F5:F36" si="1">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G5" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G5:G36" si="2">"Config.NoInclude/DataShapes/"&amp;E5&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H5" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
+        <f t="shared" ref="H5:H36" si="3">"Config.NoInclude/Engines/"&amp;B5&amp;"-"&amp;C5&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I5" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
+        <f t="shared" ref="I5:I36" si="4">"Config.NoInclude/DataSets/"&amp;D5&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J5" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
+        <f t="shared" ref="J5:J36" si="5">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G5&amp;" "&amp;I5&amp;" "&amp;H5</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;K$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f t="shared" ref="K5:P20" si="6">"zzz Infer "&amp;$A$2&amp;" "&amp;$F5&amp;" "&amp;K$2&amp;" "&amp;$A5</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6556</v>
       </c>
       <c r="L5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;L$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6556</v>
       </c>
       <c r="M5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;M$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6556</v>
       </c>
       <c r="N5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;N$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6556</v>
       </c>
       <c r="O5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;O$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6556</v>
       </c>
       <c r="P5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;P$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-      <c r="Q5" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G5&amp;" "&amp;Q$2&amp;" "&amp;$H5&amp;" "&amp;$A5</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9048</v>
       </c>
@@ -864,61 +855,57 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
       </c>
       <c r="F6" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G6" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E6&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H6" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B6&amp;"-"&amp;C6&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I6" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D6&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J6" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G6&amp;" "&amp;I6&amp;" "&amp;H6</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;K$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9048</v>
       </c>
       <c r="L6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;L$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9048</v>
       </c>
       <c r="M6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;M$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9048</v>
       </c>
       <c r="N6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;N$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9048</v>
       </c>
       <c r="O6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;O$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9048</v>
       </c>
       <c r="P6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;P$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G6&amp;" "&amp;Q$2&amp;" "&amp;$H6&amp;" "&amp;$A6</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5368</v>
       </c>
@@ -929,64 +916,60 @@
         <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="16">
         <v>200</v>
       </c>
       <c r="F7" s="13" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G7" s="13" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E7&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H7" s="13" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B7&amp;"-"&amp;C7&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I7" s="13" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D7&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J7" s="13" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G7&amp;" "&amp;I7&amp;" "&amp;H7</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
-      <c r="K7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;K$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="L7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;L$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="M7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;M$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="N7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;N$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="O7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;O$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="P7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;P$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
-      <c r="Q7" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G7&amp;" "&amp;Q$2&amp;" "&amp;$H7&amp;" "&amp;$A7</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5368</v>
-      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5368</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5368</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5368</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5368</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5368</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5368</v>
+      </c>
+      <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1624</v>
       </c>
@@ -1000,58 +983,54 @@
         <v>12000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E8&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B8&amp;"-"&amp;C8&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D8&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G8&amp;" "&amp;I8&amp;" "&amp;H8</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;K$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1624</v>
       </c>
       <c r="L8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;L$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1624</v>
       </c>
       <c r="M8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;M$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1624</v>
       </c>
       <c r="N8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;N$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1624</v>
       </c>
       <c r="O8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;O$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1624</v>
       </c>
       <c r="P8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;P$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G8&amp;" "&amp;Q$2&amp;" "&amp;$H8&amp;" "&amp;$A8</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9368</v>
       </c>
@@ -1068,55 +1047,51 @@
         <v>100</v>
       </c>
       <c r="F9" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G9" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E9&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H9" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B9&amp;"-"&amp;C9&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I9" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D9&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J9" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G9&amp;" "&amp;I9&amp;" "&amp;H9</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;K$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9368</v>
       </c>
       <c r="L9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;L$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9368</v>
       </c>
       <c r="M9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;M$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9368</v>
       </c>
       <c r="N9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;N$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9368</v>
       </c>
       <c r="O9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;O$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9368</v>
       </c>
       <c r="P9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;P$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G9&amp;" "&amp;Q$2&amp;" "&amp;$H9&amp;" "&amp;$A9</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3400</v>
       </c>
@@ -1133,55 +1108,51 @@
         <v>200</v>
       </c>
       <c r="F10" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G10" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E10&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H10" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B10&amp;"-"&amp;C10&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I10" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D10&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J10" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G10&amp;" "&amp;I10&amp;" "&amp;H10</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;K$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3400</v>
       </c>
       <c r="L10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;L$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3400</v>
       </c>
       <c r="M10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;M$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3400</v>
       </c>
       <c r="N10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;N$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3400</v>
       </c>
       <c r="O10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;O$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3400</v>
       </c>
       <c r="P10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;P$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G10&amp;" "&amp;Q$2&amp;" "&amp;$H10&amp;" "&amp;$A10</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9372</v>
       </c>
@@ -1195,58 +1166,54 @@
         <v>18000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G11" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E11&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H11" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B11&amp;"-"&amp;C11&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I11" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D11&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J11" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G11&amp;" "&amp;I11&amp;" "&amp;H11</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;K$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9372</v>
       </c>
       <c r="L11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;L$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9372</v>
       </c>
       <c r="M11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;M$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9372</v>
       </c>
       <c r="N11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;N$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9372</v>
       </c>
       <c r="O11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;O$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9372</v>
       </c>
       <c r="P11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;P$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G11&amp;" "&amp;Q$2&amp;" "&amp;$H11&amp;" "&amp;$A11</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 9372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3576</v>
       </c>
@@ -1263,55 +1230,51 @@
         <v>100</v>
       </c>
       <c r="F12" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G12" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E12&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H12" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B12&amp;"-"&amp;C12&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I12" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D12&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J12" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G12&amp;" "&amp;I12&amp;" "&amp;H12</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;K$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3576</v>
       </c>
       <c r="L12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;L$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3576</v>
       </c>
       <c r="M12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;M$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3576</v>
       </c>
       <c r="N12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;N$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3576</v>
       </c>
       <c r="O12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;O$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3576</v>
       </c>
       <c r="P12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;P$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G12&amp;" "&amp;Q$2&amp;" "&amp;$H12&amp;" "&amp;$A12</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 3576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -1328,55 +1291,51 @@
         <v>200</v>
       </c>
       <c r="F13" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G13" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E13&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H13" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B13&amp;"-"&amp;C13&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I13" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D13&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J13" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G13&amp;" "&amp;I13&amp;" "&amp;H13</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;K$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1980</v>
       </c>
       <c r="L13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;L$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1980</v>
       </c>
       <c r="M13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;M$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1980</v>
       </c>
       <c r="N13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;N$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1980</v>
       </c>
       <c r="O13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;O$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1980</v>
       </c>
       <c r="P13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;P$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-      <c r="Q13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G13&amp;" "&amp;Q$2&amp;" "&amp;$H13&amp;" "&amp;$A13</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 1980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8052</v>
       </c>
@@ -1390,58 +1349,54 @@
         <v>24000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G14" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E14&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H14" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B14&amp;"-"&amp;C14&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I14" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D14&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J14" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G14&amp;" "&amp;I14&amp;" "&amp;H14</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;K$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8052</v>
       </c>
       <c r="L14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;L$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8052</v>
       </c>
       <c r="M14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;M$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8052</v>
       </c>
       <c r="N14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;N$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8052</v>
       </c>
       <c r="O14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;O$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8052</v>
       </c>
       <c r="P14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;P$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-      <c r="Q14" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G14&amp;" "&amp;Q$2&amp;" "&amp;$H14&amp;" "&amp;$A14</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 8052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5532</v>
       </c>
@@ -1458,55 +1413,51 @@
         <v>100</v>
       </c>
       <c r="F15" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G15" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E15&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H15" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B15&amp;"-"&amp;C15&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I15" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D15&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J15" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G15&amp;" "&amp;I15&amp;" "&amp;H15</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;K$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5532</v>
       </c>
       <c r="L15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;L$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5532</v>
       </c>
       <c r="M15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;M$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5532</v>
       </c>
       <c r="N15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;N$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5532</v>
       </c>
       <c r="O15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;O$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5532</v>
       </c>
       <c r="P15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;P$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-      <c r="Q15" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G15&amp;" "&amp;Q$2&amp;" "&amp;$H15&amp;" "&amp;$A15</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 5532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>6348</v>
       </c>
@@ -1523,55 +1474,51 @@
         <v>200</v>
       </c>
       <c r="F16" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G16" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E16&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H16" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B16&amp;"-"&amp;C16&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="I16" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D16&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J16" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G16&amp;" "&amp;I16&amp;" "&amp;H16</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2.xml</v>
       </c>
       <c r="K16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;K$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6348</v>
       </c>
       <c r="L16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;L$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6348</v>
       </c>
       <c r="M16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;M$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6348</v>
       </c>
       <c r="N16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;N$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6348</v>
       </c>
       <c r="O16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;O$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6348</v>
       </c>
       <c r="P16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;P$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-      <c r="Q16" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G16&amp;" "&amp;Q$2&amp;" "&amp;$H16&amp;" "&amp;$A16</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2.xml 6348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9488</v>
       </c>
@@ -1582,61 +1529,57 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G17" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E17&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H17" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B17&amp;"-"&amp;C17&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I17" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D17&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J17" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G17&amp;" "&amp;I17&amp;" "&amp;H17</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;K$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9488</v>
       </c>
       <c r="L17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;L$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9488</v>
       </c>
       <c r="M17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;M$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9488</v>
       </c>
       <c r="N17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;N$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9488</v>
       </c>
       <c r="O17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;O$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9488</v>
       </c>
       <c r="P17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;P$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-      <c r="Q17" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G17&amp;" "&amp;Q$2&amp;" "&amp;$H17&amp;" "&amp;$A17</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4616</v>
       </c>
@@ -1647,61 +1590,57 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6">
         <v>100</v>
       </c>
       <c r="F18" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G18" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E18&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H18" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B18&amp;"-"&amp;C18&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I18" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D18&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J18" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G18&amp;" "&amp;I18&amp;" "&amp;H18</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;K$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4616</v>
       </c>
       <c r="L18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;L$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4616</v>
       </c>
       <c r="M18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;M$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4616</v>
       </c>
       <c r="N18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;N$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4616</v>
       </c>
       <c r="O18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;O$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4616</v>
       </c>
       <c r="P18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;P$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-      <c r="Q18" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G18&amp;" "&amp;Q$2&amp;" "&amp;$H18&amp;" "&amp;$A18</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 4616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7656</v>
       </c>
@@ -1712,61 +1651,57 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6">
         <v>200</v>
       </c>
       <c r="F19" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G19" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E19&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H19" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B19&amp;"-"&amp;C19&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I19" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D19&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J19" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G19&amp;" "&amp;I19&amp;" "&amp;H19</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;K$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7656</v>
       </c>
       <c r="L19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;L$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7656</v>
       </c>
       <c r="M19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;M$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7656</v>
       </c>
       <c r="N19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;N$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7656</v>
       </c>
       <c r="O19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;O$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7656</v>
       </c>
       <c r="P19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;P$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-      <c r="Q19" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G19&amp;" "&amp;Q$2&amp;" "&amp;$H19&amp;" "&amp;$A19</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5340</v>
       </c>
@@ -1780,58 +1715,54 @@
         <v>12000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F20" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G20" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E20&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H20" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B20&amp;"-"&amp;C20&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I20" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D20&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J20" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G20&amp;" "&amp;I20&amp;" "&amp;H20</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;K$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5340</v>
       </c>
       <c r="L20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;L$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5340</v>
       </c>
       <c r="M20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;M$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5340</v>
       </c>
       <c r="N20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;N$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5340</v>
       </c>
       <c r="O20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;O$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5340</v>
       </c>
       <c r="P20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;P$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-      <c r="Q20" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G20&amp;" "&amp;Q$2&amp;" "&amp;$H20&amp;" "&amp;$A20</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9312</v>
       </c>
@@ -1848,55 +1779,51 @@
         <v>100</v>
       </c>
       <c r="F21" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G21" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E21&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H21" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B21&amp;"-"&amp;C21&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I21" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D21&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J21" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G21&amp;" "&amp;I21&amp;" "&amp;H21</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;K$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f t="shared" ref="K21:P36" si="7">"zzz Infer "&amp;$A$2&amp;" "&amp;$F21&amp;" "&amp;K$2&amp;" "&amp;$A21</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 9312</v>
       </c>
       <c r="L21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;L$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 9312</v>
       </c>
       <c r="M21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;M$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 9312</v>
       </c>
       <c r="N21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;N$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 9312</v>
       </c>
       <c r="O21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;O$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 9312</v>
       </c>
       <c r="P21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;P$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-      <c r="Q21" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G21&amp;" "&amp;Q$2&amp;" "&amp;$H21&amp;" "&amp;$A21</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 9312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 9312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3144</v>
       </c>
@@ -1913,55 +1840,51 @@
         <v>200</v>
       </c>
       <c r="F22" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G22" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E22&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H22" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B22&amp;"-"&amp;C22&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I22" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D22&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J22" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G22&amp;" "&amp;I22&amp;" "&amp;H22</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;K$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3144</v>
       </c>
       <c r="L22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;L$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3144</v>
       </c>
       <c r="M22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;M$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3144</v>
       </c>
       <c r="N22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;N$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3144</v>
       </c>
       <c r="O22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;O$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3144</v>
       </c>
       <c r="P22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;P$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-      <c r="Q22" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G22&amp;" "&amp;Q$2&amp;" "&amp;$H22&amp;" "&amp;$A22</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7688</v>
       </c>
@@ -1975,58 +1898,54 @@
         <v>18000</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G23" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E23&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H23" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B23&amp;"-"&amp;C23&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I23" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D23&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J23" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G23&amp;" "&amp;I23&amp;" "&amp;H23</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;K$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7688</v>
       </c>
       <c r="L23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;L$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7688</v>
       </c>
       <c r="M23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;M$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7688</v>
       </c>
       <c r="N23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;N$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7688</v>
       </c>
       <c r="O23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;O$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7688</v>
       </c>
       <c r="P23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;P$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-      <c r="Q23" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G23&amp;" "&amp;Q$2&amp;" "&amp;$H23&amp;" "&amp;$A23</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 7688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3780</v>
       </c>
@@ -2043,55 +1962,51 @@
         <v>100</v>
       </c>
       <c r="F24" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G24" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E24&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H24" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B24&amp;"-"&amp;C24&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I24" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D24&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J24" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G24&amp;" "&amp;I24&amp;" "&amp;H24</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;K$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3780</v>
       </c>
       <c r="L24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;L$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3780</v>
       </c>
       <c r="M24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;M$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3780</v>
       </c>
       <c r="N24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;N$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3780</v>
       </c>
       <c r="O24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;O$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3780</v>
       </c>
       <c r="P24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;P$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-      <c r="Q24" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G24&amp;" "&amp;Q$2&amp;" "&amp;$H24&amp;" "&amp;$A24</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 3780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>796</v>
       </c>
@@ -2108,55 +2023,51 @@
         <v>200</v>
       </c>
       <c r="F25" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G25" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E25&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H25" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B25&amp;"-"&amp;C25&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I25" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D25&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J25" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G25&amp;" "&amp;I25&amp;" "&amp;H25</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;K$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 796</v>
       </c>
       <c r="L25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;L$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 796</v>
       </c>
       <c r="M25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;M$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 796</v>
       </c>
       <c r="N25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;N$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 796</v>
       </c>
       <c r="O25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;O$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 796</v>
       </c>
       <c r="P25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;P$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-      <c r="Q25" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G25&amp;" "&amp;Q$2&amp;" "&amp;$H25&amp;" "&amp;$A25</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1340</v>
       </c>
@@ -2170,58 +2081,54 @@
         <v>24000</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G26" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E26&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H26" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B26&amp;"-"&amp;C26&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I26" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D26&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J26" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G26&amp;" "&amp;I26&amp;" "&amp;H26</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;K$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1340</v>
       </c>
       <c r="L26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;L$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1340</v>
       </c>
       <c r="M26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;M$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1340</v>
       </c>
       <c r="N26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;N$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1340</v>
       </c>
       <c r="O26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;O$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1340</v>
       </c>
       <c r="P26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;P$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-      <c r="Q26" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G26&amp;" "&amp;Q$2&amp;" "&amp;$H26&amp;" "&amp;$A26</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 1340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8896</v>
       </c>
@@ -2238,55 +2145,51 @@
         <v>100</v>
       </c>
       <c r="F27" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G27" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E27&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H27" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B27&amp;"-"&amp;C27&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I27" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D27&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J27" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G27&amp;" "&amp;I27&amp;" "&amp;H27</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;K$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8896</v>
       </c>
       <c r="L27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;L$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8896</v>
       </c>
       <c r="M27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;M$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8896</v>
       </c>
       <c r="N27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;N$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8896</v>
       </c>
       <c r="O27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;O$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8896</v>
       </c>
       <c r="P27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;P$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-      <c r="Q27" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G27&amp;" "&amp;Q$2&amp;" "&amp;$H27&amp;" "&amp;$A27</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 8896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5656</v>
       </c>
@@ -2303,55 +2206,51 @@
         <v>200</v>
       </c>
       <c r="F28" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G28" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E28&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H28" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B28&amp;"-"&amp;C28&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="I28" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D28&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J28" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G28&amp;" "&amp;I28&amp;" "&amp;H28</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-1-1.xml</v>
       </c>
       <c r="K28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;K$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5656</v>
       </c>
       <c r="L28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;L$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5656</v>
       </c>
       <c r="M28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;M$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5656</v>
       </c>
       <c r="N28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;N$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5656</v>
       </c>
       <c r="O28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;O$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5656</v>
       </c>
       <c r="P28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;P$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-      <c r="Q28" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G28&amp;" "&amp;Q$2&amp;" "&amp;$H28&amp;" "&amp;$A28</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-1-1.xml 5656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2416</v>
       </c>
@@ -2362,61 +2261,57 @@
         <v>1</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G29" s="8" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E29&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B29&amp;"-"&amp;C29&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D29&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G29&amp;" "&amp;I29&amp;" "&amp;H29</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
-      <c r="K29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;K$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="L29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;L$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="M29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;M$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="N29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;N$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="O29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;O$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="P29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;P$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-      <c r="Q29" s="8" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G29&amp;" "&amp;Q$2&amp;" "&amp;$H29&amp;" "&amp;$A29</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 2416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 2416</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 2416</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 2416</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 2416</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 2416</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 2416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>4696</v>
       </c>
@@ -2427,63 +2322,59 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" s="6">
         <v>100</v>
       </c>
       <c r="F30" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G30" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E30&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H30" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B30&amp;"-"&amp;C30&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I30" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D30&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J30" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G30&amp;" "&amp;I30&amp;" "&amp;H30</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;K$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4696</v>
       </c>
       <c r="L30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;L$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4696</v>
       </c>
       <c r="M30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;M$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4696</v>
       </c>
       <c r="N30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;N$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4696</v>
       </c>
       <c r="O30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;O$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4696</v>
       </c>
       <c r="P30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;P$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-      <c r="Q30" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G30&amp;" "&amp;Q$2&amp;" "&amp;$H30&amp;" "&amp;$A30</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2492,61 +2383,57 @@
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="6">
         <v>200</v>
       </c>
       <c r="F31" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G31" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E31&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H31" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B31&amp;"-"&amp;C31&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I31" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D31&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J31" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G31&amp;" "&amp;I31&amp;" "&amp;H31</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;K$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="L31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;L$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="M31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;M$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="N31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;N$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="O31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;O$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="P31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;P$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="Q31" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G31&amp;" "&amp;Q$2&amp;" "&amp;$H31&amp;" "&amp;$A31</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7252</v>
       </c>
@@ -2560,58 +2447,54 @@
         <v>12000</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F32" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G32" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E32&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H32" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B32&amp;"-"&amp;C32&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I32" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D32&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J32" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G32&amp;" "&amp;I32&amp;" "&amp;H32</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;K$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7252</v>
       </c>
       <c r="L32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;L$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7252</v>
       </c>
       <c r="M32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;M$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7252</v>
       </c>
       <c r="N32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;N$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7252</v>
       </c>
       <c r="O32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;O$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7252</v>
       </c>
       <c r="P32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;P$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-      <c r="Q32" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G32&amp;" "&amp;Q$2&amp;" "&amp;$H32&amp;" "&amp;$A32</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 7252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4880</v>
       </c>
@@ -2628,57 +2511,53 @@
         <v>100</v>
       </c>
       <c r="F33" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G33" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E33&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H33" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B33&amp;"-"&amp;C33&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I33" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D33&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J33" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G33&amp;" "&amp;I33&amp;" "&amp;H33</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;K$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4880</v>
       </c>
       <c r="L33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;L$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4880</v>
       </c>
       <c r="M33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;M$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4880</v>
       </c>
       <c r="N33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;N$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4880</v>
       </c>
       <c r="O33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;O$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4880</v>
       </c>
       <c r="P33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;P$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-      <c r="Q33" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G33&amp;" "&amp;Q$2&amp;" "&amp;$H33&amp;" "&amp;$A33</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 4880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2693,55 +2572,51 @@
         <v>200</v>
       </c>
       <c r="F34" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G34" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E34&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H34" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B34&amp;"-"&amp;C34&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I34" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D34&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J34" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G34&amp;" "&amp;I34&amp;" "&amp;H34</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;K$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml MEM!</v>
       </c>
       <c r="L34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;L$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml MEM!</v>
       </c>
       <c r="M34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;M$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml MEM!</v>
       </c>
       <c r="N34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;N$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml MEM!</v>
       </c>
       <c r="O34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;O$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml MEM!</v>
       </c>
       <c r="P34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;P$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-      <c r="Q34" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G34&amp;" "&amp;Q$2&amp;" "&amp;$H34&amp;" "&amp;$A34</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml MEM!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml MEM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3476</v>
       </c>
@@ -2755,58 +2630,54 @@
         <v>18000</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G35" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E35&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H35" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B35&amp;"-"&amp;C35&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I35" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D35&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J35" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G35&amp;" "&amp;I35&amp;" "&amp;H35</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;K$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 3476</v>
       </c>
       <c r="L35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;L$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 3476</v>
       </c>
       <c r="M35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;M$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 3476</v>
       </c>
       <c r="N35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;N$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 3476</v>
       </c>
       <c r="O35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;O$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 3476</v>
       </c>
       <c r="P35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;P$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-      <c r="Q35" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G35&amp;" "&amp;Q$2&amp;" "&amp;$H35&amp;" "&amp;$A35</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml 3476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 3476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2820,55 +2691,51 @@
         <v>100</v>
       </c>
       <c r="F36" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="1"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G36" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E36&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="2"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H36" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B36&amp;"-"&amp;C36&amp;".xml"</f>
+        <f t="shared" si="3"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I36" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D36&amp;".xml"</f>
+        <f t="shared" si="4"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J36" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G36&amp;" "&amp;I36&amp;" "&amp;H36</f>
+        <f t="shared" si="5"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;K$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;L$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;M$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;N$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;O$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;P$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="Q36" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G36&amp;" "&amp;Q$2&amp;" "&amp;$H36&amp;" "&amp;$A36</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -2882,55 +2749,51 @@
         <v>200</v>
       </c>
       <c r="F37" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F37:F68" si="8">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G37" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G37:G68" si="9">"Config.NoInclude/DataShapes/"&amp;E37&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H37" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
+        <f t="shared" ref="H37:H68" si="10">"Config.NoInclude/Engines/"&amp;B37&amp;"-"&amp;C37&amp;".xml"</f>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I37" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
+        <f t="shared" ref="I37:I68" si="11">"Config.NoInclude/DataSets/"&amp;D37&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J37" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
+        <f t="shared" ref="J37:J68" si="12">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G37&amp;" "&amp;I37&amp;" "&amp;H37</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;K$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" ref="K37:P52" si="13">"zzz Infer "&amp;$A$2&amp;" "&amp;$F37&amp;" "&amp;K$2&amp;" "&amp;$A37</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;L$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;M$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;N$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;O$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;P$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="Q37" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G37&amp;" "&amp;Q$2&amp;" "&amp;$H37&amp;" "&amp;$A37</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -2941,58 +2804,54 @@
         <v>24000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G38" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E38&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H38" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B38&amp;"-"&amp;C38&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I38" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D38&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J38" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G38&amp;" "&amp;I38&amp;" "&amp;H38</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;K$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;L$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;M$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;N$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;O$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;P$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="Q38" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G38&amp;" "&amp;Q$2&amp;" "&amp;$H38&amp;" "&amp;$A38</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3006,55 +2865,51 @@
         <v>100</v>
       </c>
       <c r="F39" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G39" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E39&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H39" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B39&amp;"-"&amp;C39&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I39" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D39&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J39" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G39&amp;" "&amp;I39&amp;" "&amp;H39</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;K$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;L$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;M$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;N$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;O$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;P$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="Q39" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G39&amp;" "&amp;Q$2&amp;" "&amp;$H39&amp;" "&amp;$A39</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3068,55 +2923,51 @@
         <v>200</v>
       </c>
       <c r="F40" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G40" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E40&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H40" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B40&amp;"-"&amp;C40&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="I40" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D40&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J40" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G40&amp;" "&amp;I40&amp;" "&amp;H40</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/STD-2-2-1.xml</v>
       </c>
       <c r="K40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;K$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;L$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;M$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;N$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;O$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;P$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-      <c r="Q40" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G40&amp;" "&amp;Q$2&amp;" "&amp;$H40&amp;" "&amp;$A40</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/STD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>5764</v>
       </c>
@@ -3127,73 +2978,57 @@
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G41" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E41&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H41" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B41&amp;"-"&amp;C41&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I41" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D41&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J41" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G41&amp;" "&amp;I41&amp;" "&amp;H41</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;K$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5764</v>
       </c>
       <c r="L41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;L$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5764</v>
       </c>
       <c r="M41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;M$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5764</v>
       </c>
       <c r="N41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;N$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5764</v>
       </c>
       <c r="O41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;O$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5764</v>
       </c>
       <c r="P41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;P$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
-      </c>
-      <c r="Q41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;Q$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
-      </c>
-      <c r="R41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;R$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
-      </c>
-      <c r="S41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;S$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
-      </c>
-      <c r="T41" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G41&amp;" "&amp;T$2&amp;" "&amp;$H41&amp;" "&amp;$A41</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2.xml 5764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5648</v>
       </c>
@@ -3204,61 +3039,57 @@
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E42" s="6">
         <v>100</v>
       </c>
       <c r="F42" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G42" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E42&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H42" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B42&amp;"-"&amp;C42&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I42" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D42&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J42" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G42&amp;" "&amp;I42&amp;" "&amp;H42</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;K$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5648</v>
       </c>
       <c r="L42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;L$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5648</v>
       </c>
       <c r="M42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;M$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5648</v>
       </c>
       <c r="N42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;N$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5648</v>
       </c>
       <c r="O42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;O$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5648</v>
       </c>
       <c r="P42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;P$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
-      </c>
-      <c r="Q42" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G42&amp;" "&amp;Q$2&amp;" "&amp;$H42&amp;" "&amp;$A42</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>6176</v>
       </c>
@@ -3269,64 +3100,60 @@
         <v>2</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E43" s="16">
         <v>200</v>
       </c>
       <c r="F43" s="13" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G43" s="13" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E43&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H43" s="13" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B43&amp;"-"&amp;C43&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I43" s="13" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D43&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J43" s="13" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G43&amp;" "&amp;I43&amp;" "&amp;H43</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
-      <c r="K43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;K$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
-      <c r="L43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;L$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
-      <c r="M43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;M$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
-      <c r="N43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;N$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
-      <c r="O43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;O$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
-      <c r="P43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;P$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
-      <c r="Q43" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G43&amp;" "&amp;Q$2&amp;" "&amp;$H43&amp;" "&amp;$A43</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 6176</v>
-      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6176</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6176</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6176</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6176</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6176</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6176</v>
+      </c>
+      <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>0</v>
       </c>
@@ -3334,61 +3161,57 @@
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E44" s="6">
         <v>500</v>
       </c>
       <c r="F44" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G44" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E44&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H44" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B44&amp;"-"&amp;C44&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I44" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D44&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J44" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G44&amp;" "&amp;I44&amp;" "&amp;H44</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;K$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;L$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;M$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;N$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;O$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;P$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="Q44" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G44&amp;" "&amp;Q$2&amp;" "&amp;$H44&amp;" "&amp;$A44</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5356</v>
       </c>
@@ -3402,58 +3225,54 @@
         <v>12000</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G45" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E45&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H45" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B45&amp;"-"&amp;C45&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I45" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D45&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J45" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G45&amp;" "&amp;I45&amp;" "&amp;H45</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;K$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5356</v>
       </c>
       <c r="L45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;L$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5356</v>
       </c>
       <c r="M45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;M$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5356</v>
       </c>
       <c r="N45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;N$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5356</v>
       </c>
       <c r="O45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;O$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5356</v>
       </c>
       <c r="P45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;P$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
-      </c>
-      <c r="Q45" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G45&amp;" "&amp;Q$2&amp;" "&amp;$H45&amp;" "&amp;$A45</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>956</v>
       </c>
@@ -3470,55 +3289,51 @@
         <v>100</v>
       </c>
       <c r="F46" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G46" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E46&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H46" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B46&amp;"-"&amp;C46&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I46" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D46&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J46" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G46&amp;" "&amp;I46&amp;" "&amp;H46</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;K$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 956</v>
       </c>
       <c r="L46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;L$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 956</v>
       </c>
       <c r="M46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;M$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 956</v>
       </c>
       <c r="N46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;N$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 956</v>
       </c>
       <c r="O46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;O$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 956</v>
       </c>
       <c r="P46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;P$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
-      </c>
-      <c r="Q46" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G46&amp;" "&amp;Q$2&amp;" "&amp;$H46&amp;" "&amp;$A46</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 956</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8195</v>
       </c>
@@ -3535,55 +3350,51 @@
         <v>200</v>
       </c>
       <c r="F47" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G47" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E47&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H47" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B47&amp;"-"&amp;C47&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I47" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D47&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J47" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G47&amp;" "&amp;I47&amp;" "&amp;H47</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;K$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8195</v>
       </c>
       <c r="L47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;L$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8195</v>
       </c>
       <c r="M47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;M$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8195</v>
       </c>
       <c r="N47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;N$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8195</v>
       </c>
       <c r="O47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;O$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8195</v>
       </c>
       <c r="P47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;P$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
-      </c>
-      <c r="Q47" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G47&amp;" "&amp;Q$2&amp;" "&amp;$H47&amp;" "&amp;$A47</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -3597,55 +3408,51 @@
         <v>500</v>
       </c>
       <c r="F48" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G48" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E48&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H48" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B48&amp;"-"&amp;C48&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I48" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D48&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J48" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G48&amp;" "&amp;I48&amp;" "&amp;H48</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;K$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;L$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;M$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;N$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;O$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;P$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="Q48" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G48&amp;" "&amp;Q$2&amp;" "&amp;$H48&amp;" "&amp;$A48</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8064</v>
       </c>
@@ -3659,58 +3466,54 @@
         <v>18000</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F49" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G49" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E49&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H49" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B49&amp;"-"&amp;C49&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I49" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D49&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J49" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G49&amp;" "&amp;I49&amp;" "&amp;H49</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;K$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8064</v>
       </c>
       <c r="L49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;L$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8064</v>
       </c>
       <c r="M49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;M$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8064</v>
       </c>
       <c r="N49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;N$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8064</v>
       </c>
       <c r="O49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;O$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8064</v>
       </c>
       <c r="P49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;P$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
-      </c>
-      <c r="Q49" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G49&amp;" "&amp;Q$2&amp;" "&amp;$H49&amp;" "&amp;$A49</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8064</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8064</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6435</v>
       </c>
@@ -3727,55 +3530,51 @@
         <v>100</v>
       </c>
       <c r="F50" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G50" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E50&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H50" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B50&amp;"-"&amp;C50&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I50" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D50&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J50" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G50&amp;" "&amp;I50&amp;" "&amp;H50</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;K$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6435</v>
       </c>
       <c r="L50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;L$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6435</v>
       </c>
       <c r="M50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;M$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6435</v>
       </c>
       <c r="N50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;N$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6435</v>
       </c>
       <c r="O50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;O$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6435</v>
       </c>
       <c r="P50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;P$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
-      </c>
-      <c r="Q50" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G50&amp;" "&amp;Q$2&amp;" "&amp;$H50&amp;" "&amp;$A50</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 6435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>7476</v>
       </c>
@@ -3792,55 +3591,51 @@
         <v>200</v>
       </c>
       <c r="F51" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G51" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E51&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H51" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B51&amp;"-"&amp;C51&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I51" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D51&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J51" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G51&amp;" "&amp;I51&amp;" "&amp;H51</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;K$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7476</v>
       </c>
       <c r="L51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;L$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7476</v>
       </c>
       <c r="M51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;M$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7476</v>
       </c>
       <c r="N51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;N$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7476</v>
       </c>
       <c r="O51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;O$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7476</v>
       </c>
       <c r="P51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;P$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
-      </c>
-      <c r="Q51" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G51&amp;" "&amp;Q$2&amp;" "&amp;$H51&amp;" "&amp;$A51</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 7476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -3854,55 +3649,51 @@
         <v>500</v>
       </c>
       <c r="F52" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G52" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E52&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H52" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B52&amp;"-"&amp;C52&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I52" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D52&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J52" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G52&amp;" "&amp;I52&amp;" "&amp;H52</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;K$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;L$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;M$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;N$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;O$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;P$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="Q52" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G52&amp;" "&amp;Q$2&amp;" "&amp;$H52&amp;" "&amp;$A52</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5212</v>
       </c>
@@ -3916,58 +3707,54 @@
         <v>24000</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F53" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G53" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E53&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H53" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B53&amp;"-"&amp;C53&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I53" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D53&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J53" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G53&amp;" "&amp;I53&amp;" "&amp;H53</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;K$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
+        <f t="shared" ref="K53:P68" si="14">"zzz Infer "&amp;$A$2&amp;" "&amp;$F53&amp;" "&amp;K$2&amp;" "&amp;$A53</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5212</v>
       </c>
       <c r="L53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;L$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5212</v>
       </c>
       <c r="M53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;M$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5212</v>
       </c>
       <c r="N53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;N$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5212</v>
       </c>
       <c r="O53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;O$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5212</v>
       </c>
       <c r="P53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;P$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
-      </c>
-      <c r="Q53" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G53&amp;" "&amp;Q$2&amp;" "&amp;$H53&amp;" "&amp;$A53</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 5212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8636</v>
       </c>
@@ -3984,55 +3771,51 @@
         <v>100</v>
       </c>
       <c r="F54" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G54" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E54&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H54" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B54&amp;"-"&amp;C54&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I54" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D54&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J54" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G54&amp;" "&amp;I54&amp;" "&amp;H54</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;K$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8636</v>
       </c>
       <c r="L54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;L$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8636</v>
       </c>
       <c r="M54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;M$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8636</v>
       </c>
       <c r="N54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;N$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8636</v>
       </c>
       <c r="O54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;O$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8636</v>
       </c>
       <c r="P54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;P$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
-      </c>
-      <c r="Q54" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G54&amp;" "&amp;Q$2&amp;" "&amp;$H54&amp;" "&amp;$A54</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8636</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8420</v>
       </c>
@@ -4049,55 +3832,51 @@
         <v>200</v>
       </c>
       <c r="F55" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G55" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E55&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H55" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B55&amp;"-"&amp;C55&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I55" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D55&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J55" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G55&amp;" "&amp;I55&amp;" "&amp;H55</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;K$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8420</v>
       </c>
       <c r="L55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;L$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8420</v>
       </c>
       <c r="M55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;M$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8420</v>
       </c>
       <c r="N55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;N$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8420</v>
       </c>
       <c r="O55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;O$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8420</v>
       </c>
       <c r="P55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;P$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
-      </c>
-      <c r="Q55" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G55&amp;" "&amp;Q$2&amp;" "&amp;$H55&amp;" "&amp;$A55</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml 8420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -4111,55 +3890,51 @@
         <v>500</v>
       </c>
       <c r="F56" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G56" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E56&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H56" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B56&amp;"-"&amp;C56&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="I56" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D56&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J56" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G56&amp;" "&amp;I56&amp;" "&amp;H56</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2.xml</v>
       </c>
       <c r="K56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;K$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;L$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;M$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;N$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;O$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;P$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-      <c r="Q56" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G56&amp;" "&amp;Q$2&amp;" "&amp;$H56&amp;" "&amp;$A56</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2.xml </v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>5920</v>
       </c>
@@ -4170,73 +3945,57 @@
         <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F57" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G57" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E57&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H57" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B57&amp;"-"&amp;C57&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I57" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D57&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J57" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G57&amp;" "&amp;I57&amp;" "&amp;H57</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;K$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5920</v>
       </c>
       <c r="L57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;L$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5920</v>
       </c>
       <c r="M57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;M$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5920</v>
       </c>
       <c r="N57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;N$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5920</v>
       </c>
       <c r="O57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;O$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5920</v>
       </c>
       <c r="P57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;P$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
-      </c>
-      <c r="Q57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;Q$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
-      </c>
-      <c r="R57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;R$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
-      </c>
-      <c r="S57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;S$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
-      </c>
-      <c r="T57" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G57&amp;" "&amp;T$2&amp;" "&amp;$H57&amp;" "&amp;$A57</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5920</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4935</v>
       </c>
@@ -4247,61 +4006,57 @@
         <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E58" s="6">
         <v>100</v>
       </c>
       <c r="F58" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G58" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E58&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H58" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B58&amp;"-"&amp;C58&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I58" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D58&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J58" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G58&amp;" "&amp;I58&amp;" "&amp;H58</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;K$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 4935</v>
       </c>
       <c r="L58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;L$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 4935</v>
       </c>
       <c r="M58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;M$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 4935</v>
       </c>
       <c r="N58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;N$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 4935</v>
       </c>
       <c r="O58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;O$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 4935</v>
       </c>
       <c r="P58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;P$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
-      </c>
-      <c r="Q58" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G58&amp;" "&amp;Q$2&amp;" "&amp;$H58&amp;" "&amp;$A58</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 4935</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 4935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7360</v>
       </c>
@@ -4312,61 +4067,57 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E59" s="6">
         <v>200</v>
       </c>
       <c r="F59" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G59" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E59&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H59" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B59&amp;"-"&amp;C59&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I59" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D59&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J59" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G59&amp;" "&amp;I59&amp;" "&amp;H59</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;K$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
+        <f>"zzz Infer "&amp;$A$2&amp;" "&amp;$F59&amp;" "&amp;K$2&amp;" "&amp;$A59</f>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7360</v>
       </c>
       <c r="L59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;L$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7360</v>
       </c>
       <c r="M59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;M$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7360</v>
       </c>
       <c r="N59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;N$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7360</v>
       </c>
       <c r="O59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;O$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7360</v>
       </c>
       <c r="P59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;P$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
-      </c>
-      <c r="Q59" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G59&amp;" "&amp;Q$2&amp;" "&amp;$H59&amp;" "&amp;$A59</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 7360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -4374,61 +4125,57 @@
         <v>2</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E60" s="6">
         <v>500</v>
       </c>
       <c r="F60" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G60" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E60&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H60" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B60&amp;"-"&amp;C60&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I60" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D60&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J60" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G60&amp;" "&amp;I60&amp;" "&amp;H60</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;K$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" ref="K60:P75" si="15">"zzz Infer "&amp;$A$2&amp;" "&amp;$F60&amp;" "&amp;K$2&amp;" "&amp;$A60</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;L$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;M$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;N$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;O$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;P$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="Q60" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G60&amp;" "&amp;Q$2&amp;" "&amp;$H60&amp;" "&amp;$A60</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6307</v>
       </c>
@@ -4442,58 +4189,54 @@
         <v>12000</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F61" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G61" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E61&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H61" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B61&amp;"-"&amp;C61&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I61" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D61&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J61" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G61&amp;" "&amp;I61&amp;" "&amp;H61</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;K$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6307</v>
       </c>
       <c r="L61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;L$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6307</v>
       </c>
       <c r="M61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;M$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6307</v>
       </c>
       <c r="N61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;N$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6307</v>
       </c>
       <c r="O61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;O$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6307</v>
       </c>
       <c r="P61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;P$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
-      </c>
-      <c r="Q61" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G61&amp;" "&amp;Q$2&amp;" "&amp;$H61&amp;" "&amp;$A61</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 6307</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6827</v>
       </c>
@@ -4510,55 +4253,51 @@
         <v>100</v>
       </c>
       <c r="F62" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G62" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E62&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H62" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B62&amp;"-"&amp;C62&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I62" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D62&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J62" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G62&amp;" "&amp;I62&amp;" "&amp;H62</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;K$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6827</v>
       </c>
       <c r="L62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;L$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6827</v>
       </c>
       <c r="M62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;M$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6827</v>
       </c>
       <c r="N62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;N$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6827</v>
       </c>
       <c r="O62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;O$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6827</v>
       </c>
       <c r="P62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;P$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
-      </c>
-      <c r="Q62" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G62&amp;" "&amp;Q$2&amp;" "&amp;$H62&amp;" "&amp;$A62</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 6827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>7376</v>
       </c>
@@ -4575,55 +4314,51 @@
         <v>200</v>
       </c>
       <c r="F63" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G63" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E63&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H63" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B63&amp;"-"&amp;C63&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I63" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D63&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J63" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G63&amp;" "&amp;I63&amp;" "&amp;H63</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;K$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7376</v>
       </c>
       <c r="L63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;L$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7376</v>
       </c>
       <c r="M63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;M$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7376</v>
       </c>
       <c r="N63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;N$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7376</v>
       </c>
       <c r="O63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;O$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7376</v>
       </c>
       <c r="P63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;P$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
-      </c>
-      <c r="Q63" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G63&amp;" "&amp;Q$2&amp;" "&amp;$H63&amp;" "&amp;$A63</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 7376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -4637,55 +4372,51 @@
         <v>500</v>
       </c>
       <c r="F64" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G64" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E64&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H64" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B64&amp;"-"&amp;C64&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I64" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D64&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J64" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G64&amp;" "&amp;I64&amp;" "&amp;H64</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;K$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;L$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;M$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;N$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;O$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;P$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="Q64" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G64&amp;" "&amp;Q$2&amp;" "&amp;$H64&amp;" "&amp;$A64</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8892</v>
       </c>
@@ -4699,58 +4430,54 @@
         <v>18000</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G65" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E65&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H65" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B65&amp;"-"&amp;C65&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I65" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D65&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J65" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G65&amp;" "&amp;I65&amp;" "&amp;H65</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;K$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8892</v>
       </c>
       <c r="L65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;L$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8892</v>
       </c>
       <c r="M65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;M$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8892</v>
       </c>
       <c r="N65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;N$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8892</v>
       </c>
       <c r="O65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;O$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8892</v>
       </c>
       <c r="P65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;P$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
-      </c>
-      <c r="Q65" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G65&amp;" "&amp;Q$2&amp;" "&amp;$H65&amp;" "&amp;$A65</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 8892</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8892</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6396</v>
       </c>
@@ -4767,55 +4494,51 @@
         <v>100</v>
       </c>
       <c r="F66" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G66" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E66&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H66" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B66&amp;"-"&amp;C66&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I66" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D66&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J66" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G66&amp;" "&amp;I66&amp;" "&amp;H66</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;K$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 6396</v>
       </c>
       <c r="L66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;L$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 6396</v>
       </c>
       <c r="M66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;M$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 6396</v>
       </c>
       <c r="N66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;N$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 6396</v>
       </c>
       <c r="O66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;O$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 6396</v>
       </c>
       <c r="P66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;P$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
-      </c>
-      <c r="Q66" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G66&amp;" "&amp;Q$2&amp;" "&amp;$H66&amp;" "&amp;$A66</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 6396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 6396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7532</v>
       </c>
@@ -4832,55 +4555,51 @@
         <v>200</v>
       </c>
       <c r="F67" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G67" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E67&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H67" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B67&amp;"-"&amp;C67&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I67" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D67&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J67" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G67&amp;" "&amp;I67&amp;" "&amp;H67</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;K$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 7532</v>
       </c>
       <c r="L67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;L$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 7532</v>
       </c>
       <c r="M67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;M$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 7532</v>
       </c>
       <c r="N67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;N$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 7532</v>
       </c>
       <c r="O67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;O$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 7532</v>
       </c>
       <c r="P67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;P$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
-      </c>
-      <c r="Q67" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G67&amp;" "&amp;Q$2&amp;" "&amp;$H67&amp;" "&amp;$A67</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 7532</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 7532</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -4894,55 +4613,51 @@
         <v>500</v>
       </c>
       <c r="F68" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="8"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G68" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E68&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="9"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H68" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B68&amp;"-"&amp;C68&amp;".xml"</f>
+        <f t="shared" si="10"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I68" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D68&amp;".xml"</f>
+        <f t="shared" si="11"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J68" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G68&amp;" "&amp;I68&amp;" "&amp;H68</f>
+        <f t="shared" si="12"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;K$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;L$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;M$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;N$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;O$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;P$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="Q68" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G68&amp;" "&amp;Q$2&amp;" "&amp;$H68&amp;" "&amp;$A68</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1212</v>
       </c>
@@ -4956,58 +4671,54 @@
         <v>24000</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F69" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" ref="F69:F88" si="16">"Config.NoInclude/Client.xml"</f>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G69" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" ref="G69:G88" si="17">"Config.NoInclude/DataShapes/"&amp;E69&amp;"-"&amp;"1.xml"</f>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H69" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
+        <f t="shared" ref="H69:H88" si="18">"Config.NoInclude/Engines/"&amp;B69&amp;"-"&amp;C69&amp;".xml"</f>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I69" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
+        <f t="shared" ref="I69:I88" si="19">"Config.NoInclude/DataSets/"&amp;D69&amp;".xml"</f>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J69" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
+        <f t="shared" ref="J69:J88" si="20">"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G69&amp;" "&amp;I69&amp;" "&amp;H69</f>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;K$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 1212</v>
       </c>
       <c r="L69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;L$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 1212</v>
       </c>
       <c r="M69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;M$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 1212</v>
       </c>
       <c r="N69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;N$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 1212</v>
       </c>
       <c r="O69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;O$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 1212</v>
       </c>
       <c r="P69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;P$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
-      </c>
-      <c r="Q69" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G69&amp;" "&amp;Q$2&amp;" "&amp;$H69&amp;" "&amp;$A69</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 1212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 1212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5731</v>
       </c>
@@ -5024,55 +4735,51 @@
         <v>100</v>
       </c>
       <c r="F70" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G70" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E70&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H70" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B70&amp;"-"&amp;C70&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I70" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D70&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J70" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G70&amp;" "&amp;I70&amp;" "&amp;H70</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;K$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5731</v>
       </c>
       <c r="L70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;L$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5731</v>
       </c>
       <c r="M70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;M$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5731</v>
       </c>
       <c r="N70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;N$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5731</v>
       </c>
       <c r="O70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;O$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5731</v>
       </c>
       <c r="P70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;P$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
-      </c>
-      <c r="Q70" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G70&amp;" "&amp;Q$2&amp;" "&amp;$H70&amp;" "&amp;$A70</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 5731</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5892</v>
       </c>
@@ -5089,55 +4796,51 @@
         <v>200</v>
       </c>
       <c r="F71" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G71" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E71&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H71" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B71&amp;"-"&amp;C71&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I71" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D71&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J71" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G71&amp;" "&amp;I71&amp;" "&amp;H71</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;K$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5892</v>
       </c>
       <c r="L71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;L$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5892</v>
       </c>
       <c r="M71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;M$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5892</v>
       </c>
       <c r="N71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;N$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5892</v>
       </c>
       <c r="O71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;O$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5892</v>
       </c>
       <c r="P71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;P$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
-      </c>
-      <c r="Q71" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G71&amp;" "&amp;Q$2&amp;" "&amp;$H71&amp;" "&amp;$A71</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml 5892</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5892</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -5151,55 +4854,51 @@
         <v>500</v>
       </c>
       <c r="F72" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G72" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E72&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H72" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B72&amp;"-"&amp;C72&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="I72" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D72&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J72" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G72&amp;" "&amp;I72&amp;" "&amp;H72</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-1-1.xml</v>
       </c>
       <c r="K72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;K$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;L$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;M$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;N$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;O$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;P$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-      <c r="Q72" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G72&amp;" "&amp;Q$2&amp;" "&amp;$H72&amp;" "&amp;$A72</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-1-1.xml </v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>8500</v>
       </c>
@@ -5210,73 +4909,60 @@
         <v>1</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F73" s="13" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E73&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H73" s="13" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B73&amp;"-"&amp;C73&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I73" s="13" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D73&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J73" s="13" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G73&amp;" "&amp;I73&amp;" "&amp;H73</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
-      <c r="K73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;K$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="L73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;L$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="M73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;M$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="N73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;N$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="O73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;O$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="P73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;P$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="Q73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;Q$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="R73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;R$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="S73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;S$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-      <c r="T73" s="13" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G73&amp;" "&amp;T$2&amp;" "&amp;$H73&amp;" "&amp;$A73</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c-bsc1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 8500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 8500</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 8500</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 8500</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 8500</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 8500</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 8500</v>
+      </c>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>5304</v>
       </c>
@@ -5287,61 +4973,57 @@
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" s="6">
         <v>100</v>
       </c>
       <c r="F74" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G74" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E74&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H74" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B74&amp;"-"&amp;C74&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I74" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D74&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J74" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G74&amp;" "&amp;I74&amp;" "&amp;H74</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;K$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5304</v>
       </c>
       <c r="L74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;L$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5304</v>
       </c>
       <c r="M74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;M$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5304</v>
       </c>
       <c r="N74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;N$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5304</v>
       </c>
       <c r="O74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;O$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5304</v>
       </c>
       <c r="P74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;P$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
-      </c>
-      <c r="Q74" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G74&amp;" "&amp;Q$2&amp;" "&amp;$H74&amp;" "&amp;$A74</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -5349,61 +5031,57 @@
         <v>1</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E75" s="6">
         <v>200</v>
       </c>
       <c r="F75" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G75" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E75&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H75" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B75&amp;"-"&amp;C75&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I75" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D75&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J75" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G75&amp;" "&amp;I75&amp;" "&amp;H75</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;K$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;L$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;M$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;N$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;O$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;P$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q75" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G75&amp;" "&amp;Q$2&amp;" "&amp;$H75&amp;" "&amp;$A75</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -5411,61 +5089,57 @@
         <v>1</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E76" s="6">
         <v>500</v>
       </c>
       <c r="F76" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G76" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E76&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H76" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B76&amp;"-"&amp;C76&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I76" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D76&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/06000.xml</v>
       </c>
       <c r="J76" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G76&amp;" "&amp;I76&amp;" "&amp;H76</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/06000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;K$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" ref="K76:P88" si="21">"zzz Infer "&amp;$A$2&amp;" "&amp;$F76&amp;" "&amp;K$2&amp;" "&amp;$A76</f>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;L$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;M$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;N$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;O$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;P$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q76" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G76&amp;" "&amp;Q$2&amp;" "&amp;$H76&amp;" "&amp;$A76</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>5776</v>
       </c>
@@ -5479,58 +5153,54 @@
         <v>12000</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F77" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G77" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E77&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H77" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B77&amp;"-"&amp;C77&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I77" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D77&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J77" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G77&amp;" "&amp;I77&amp;" "&amp;H77</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;K$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+        <f t="shared" si="21"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml 5776</v>
       </c>
       <c r="L77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;L$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+        <f t="shared" si="21"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml 5776</v>
       </c>
       <c r="M77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;M$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+        <f t="shared" si="21"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml 5776</v>
       </c>
       <c r="N77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;N$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+        <f t="shared" si="21"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml 5776</v>
       </c>
       <c r="O77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;O$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
+        <f t="shared" si="21"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml 5776</v>
       </c>
       <c r="P77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;P$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
-      </c>
-      <c r="Q77" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G77&amp;" "&amp;Q$2&amp;" "&amp;$H77&amp;" "&amp;$A77</f>
-        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml 5776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml 5776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -5544,55 +5214,51 @@
         <v>100</v>
       </c>
       <c r="F78" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G78" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E78&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H78" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B78&amp;"-"&amp;C78&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I78" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D78&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J78" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G78&amp;" "&amp;I78&amp;" "&amp;H78</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;K$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;L$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;M$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;N$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;O$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;P$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q78" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G78&amp;" "&amp;Q$2&amp;" "&amp;$H78&amp;" "&amp;$A78</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -5606,55 +5272,51 @@
         <v>200</v>
       </c>
       <c r="F79" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G79" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E79&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H79" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B79&amp;"-"&amp;C79&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I79" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D79&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J79" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G79&amp;" "&amp;I79&amp;" "&amp;H79</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;K$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;L$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;M$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;N$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;O$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;P$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q79" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G79&amp;" "&amp;Q$2&amp;" "&amp;$H79&amp;" "&amp;$A79</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -5668,55 +5330,51 @@
         <v>500</v>
       </c>
       <c r="F80" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G80" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E80&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H80" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B80&amp;"-"&amp;C80&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I80" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D80&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/12000.xml</v>
       </c>
       <c r="J80" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G80&amp;" "&amp;I80&amp;" "&amp;H80</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/12000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;K$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;L$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;M$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;N$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;O$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;P$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q80" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G80&amp;" "&amp;Q$2&amp;" "&amp;$H80&amp;" "&amp;$A80</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -5727,58 +5385,54 @@
         <v>18000</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F81" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G81" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E81&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H81" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B81&amp;"-"&amp;C81&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I81" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D81&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J81" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G81&amp;" "&amp;I81&amp;" "&amp;H81</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;K$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;L$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;M$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;N$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;O$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;P$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q81" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G81&amp;" "&amp;Q$2&amp;" "&amp;$H81&amp;" "&amp;$A81</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -5792,55 +5446,51 @@
         <v>100</v>
       </c>
       <c r="F82" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G82" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E82&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H82" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B82&amp;"-"&amp;C82&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I82" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D82&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J82" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G82&amp;" "&amp;I82&amp;" "&amp;H82</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;K$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;L$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;M$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;N$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;O$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;P$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q82" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G82&amp;" "&amp;Q$2&amp;" "&amp;$H82&amp;" "&amp;$A82</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -5854,55 +5504,51 @@
         <v>200</v>
       </c>
       <c r="F83" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G83" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E83&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H83" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B83&amp;"-"&amp;C83&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I83" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D83&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J83" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G83&amp;" "&amp;I83&amp;" "&amp;H83</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;K$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;L$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;M$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;N$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;O$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;P$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q83" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G83&amp;" "&amp;Q$2&amp;" "&amp;$H83&amp;" "&amp;$A83</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -5916,55 +5562,51 @@
         <v>500</v>
       </c>
       <c r="F84" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G84" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E84&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H84" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B84&amp;"-"&amp;C84&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I84" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D84&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/18000.xml</v>
       </c>
       <c r="J84" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G84&amp;" "&amp;I84&amp;" "&amp;H84</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/18000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;K$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;L$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;M$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;N$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;O$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;P$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q84" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G84&amp;" "&amp;Q$2&amp;" "&amp;$H84&amp;" "&amp;$A84</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -5975,58 +5617,54 @@
         <v>24000</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F85" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G85" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E85&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/050-1.xml</v>
       </c>
       <c r="H85" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B85&amp;"-"&amp;C85&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I85" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D85&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J85" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G85&amp;" "&amp;I85&amp;" "&amp;H85</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;K$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;L$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;M$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;N$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;O$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;P$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q85" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G85&amp;" "&amp;Q$2&amp;" "&amp;$H85&amp;" "&amp;$A85</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/050-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -6040,55 +5678,51 @@
         <v>100</v>
       </c>
       <c r="F86" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G86" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E86&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/100-1.xml</v>
       </c>
       <c r="H86" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B86&amp;"-"&amp;C86&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I86" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D86&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J86" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G86&amp;" "&amp;I86&amp;" "&amp;H86</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;K$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;L$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;M$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;N$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;O$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;P$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q86" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G86&amp;" "&amp;Q$2&amp;" "&amp;$H86&amp;" "&amp;$A86</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/100-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -6102,55 +5736,51 @@
         <v>200</v>
       </c>
       <c r="F87" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G87" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E87&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/200-1.xml</v>
       </c>
       <c r="H87" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B87&amp;"-"&amp;C87&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I87" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D87&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J87" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G87&amp;" "&amp;I87&amp;" "&amp;H87</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;K$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;L$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;M$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;N$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;O$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;P$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q87" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G87&amp;" "&amp;Q$2&amp;" "&amp;$H87&amp;" "&amp;$A87</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/200-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -6164,56 +5794,77 @@
         <v>500</v>
       </c>
       <c r="F88" t="str">
-        <f>"Config.NoInclude/Client.xml"</f>
+        <f t="shared" si="16"/>
         <v>Config.NoInclude/Client.xml</v>
       </c>
       <c r="G88" t="str">
-        <f>"Config.NoInclude/DataShapes/"&amp;E88&amp;"-"&amp;"1.xml"</f>
+        <f t="shared" si="17"/>
         <v>Config.NoInclude/DataShapes/500-1.xml</v>
       </c>
       <c r="H88" t="str">
-        <f>"Config.NoInclude/Engines/"&amp;B88&amp;"-"&amp;C88&amp;".xml"</f>
+        <f t="shared" si="18"/>
         <v>Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="I88" t="str">
-        <f>"Config.NoInclude/DataSets/"&amp;D88&amp;".xml"</f>
+        <f t="shared" si="19"/>
         <v>Config.NoInclude/DataSets/24000.xml</v>
       </c>
       <c r="J88" t="str">
-        <f>"zzz Both "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;G88&amp;" "&amp;I88&amp;" "&amp;H88</f>
+        <f t="shared" si="20"/>
         <v>zzz Both 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/24000.xml Config.NoInclude/Engines/SCGD-2-2-1.xml</v>
       </c>
       <c r="K88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;K$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0.xml </v>
       </c>
       <c r="L88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;L$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i1.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i1.xml </v>
       </c>
       <c r="M88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;M$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i2.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i2.xml </v>
       </c>
       <c r="N88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;N$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0a.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0a.xml </v>
       </c>
       <c r="O88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;O$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0b.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0b.xml </v>
       </c>
       <c r="P88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;P$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0c.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
-      </c>
-      <c r="Q88" t="str">
-        <f>"zzz Infer "&amp;$A$2&amp;" Config.NoInclude/Client.xml "&amp;$G88&amp;" "&amp;Q$2&amp;" "&amp;$H88&amp;" "&amp;$A88</f>
-        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataShapes/500-1.xml Config.NoInclude/DataSets/i0d.xml Config.NoInclude/Engines/SCGD-2-2-1.xml </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">zzz Infer 21 Config.NoInclude/Client.xml Config.NoInclude/DataSets/i0c.xml </v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P93" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:T76">
+  <autoFilter ref="A4:S88">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SCGD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1-1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="06000"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A5:T76">
       <sortCondition descending="1" ref="B5:B76"/>
       <sortCondition ref="E5:E76"/>
